--- a/etf_dfs/EWI.xlsx
+++ b/etf_dfs/EWI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWI</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -456,13 +462,13 @@
         <v>27</v>
       </c>
       <c r="F2">
-        <v>9.241611480712891</v>
+        <v>9.241610527038574</v>
       </c>
       <c r="G2">
         <v>88550</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -479,7 +485,7 @@
         <v>30.625</v>
       </c>
       <c r="F3">
-        <v>10.48238468170166</v>
+        <v>10.48238563537598</v>
       </c>
       <c r="G3">
         <v>15600</v>
@@ -488,7 +494,7 @@
         <v>0.1342592592592593</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>30.625</v>
       </c>
       <c r="F4">
-        <v>10.48238468170166</v>
+        <v>10.48238563537598</v>
       </c>
       <c r="G4">
         <v>3850</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.09493563265930502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -531,7 +540,7 @@
         <v>30.75</v>
       </c>
       <c r="F5">
-        <v>10.52517127990723</v>
+        <v>10.52517223358154</v>
       </c>
       <c r="G5">
         <v>2400</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0.004081632653061273</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.07636362887612384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.06910569105691056</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.08489096280727897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -583,7 +598,7 @@
         <v>27.625</v>
       </c>
       <c r="F7">
-        <v>9.71848201751709</v>
+        <v>9.718478202819824</v>
       </c>
       <c r="G7">
         <v>150</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>-0.03493449781659386</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.07714096909282203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -609,7 +627,7 @@
         <v>29.5</v>
       </c>
       <c r="F8">
-        <v>10.3781042098999</v>
+        <v>10.37810802459717</v>
       </c>
       <c r="G8">
         <v>9050</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.0678733031674208</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.07335541987010216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>27.625</v>
       </c>
       <c r="F9">
-        <v>9.71848201751709</v>
+        <v>9.718478202819824</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>-0.06355932203389836</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.07356605126410463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -661,7 +685,7 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>10.55400371551514</v>
+        <v>10.55400562286377</v>
       </c>
       <c r="G10">
         <v>6900</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.08597285067873295</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.07381044362822732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -687,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="F11">
-        <v>10.55400371551514</v>
+        <v>10.55400562286377</v>
       </c>
       <c r="G11">
         <v>45750</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.06923822571499512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>0.08333333333333326</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.06887788191348529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -739,7 +772,7 @@
         <v>29.875</v>
       </c>
       <c r="F13">
-        <v>10.51003074645996</v>
+        <v>10.51003170013428</v>
       </c>
       <c r="G13">
         <v>21950</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>-0.08076923076923082</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.07216263899713257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>30.25</v>
       </c>
       <c r="F14">
-        <v>10.64195823669434</v>
+        <v>10.6419563293457</v>
       </c>
       <c r="G14">
         <v>2100</v>
@@ -774,13 +810,16 @@
         <v>0.01255230125523021</v>
       </c>
       <c r="I14">
-        <v>0.1203703703703705</v>
+        <v>0.06880497382952722</v>
       </c>
       <c r="J14">
         <v>0.1203703703703705</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.1203703703703705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>30.25</v>
       </c>
       <c r="F15">
-        <v>10.64195823669434</v>
+        <v>10.6419563293457</v>
       </c>
       <c r="G15">
         <v>8050</v>
@@ -806,13 +845,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-0.01224489795918371</v>
+        <v>0.06595483230709606</v>
       </c>
       <c r="J15">
         <v>-0.01224489795918371</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>-0.01224489795918371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>30.5</v>
       </c>
       <c r="F16">
-        <v>10.72990417480469</v>
+        <v>10.729905128479</v>
       </c>
       <c r="G16">
         <v>11250</v>
@@ -838,13 +880,16 @@
         <v>0.008264462809917328</v>
       </c>
       <c r="I16">
-        <v>-0.004081632653061273</v>
+        <v>0.06337082508120007</v>
       </c>
       <c r="J16">
         <v>-0.004081632653061273</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>-0.004081632653061273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -870,13 +915,16 @@
         <v>0.09836065573770503</v>
       </c>
       <c r="I17">
-        <v>0.08943089430894302</v>
+        <v>0.06513706474365251</v>
       </c>
       <c r="J17">
         <v>0.08943089430894302</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.08943089430894302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>35.375</v>
       </c>
       <c r="F18">
-        <v>12.44493389129639</v>
+        <v>12.44493007659912</v>
       </c>
       <c r="G18">
         <v>2550</v>
@@ -902,13 +950,16 @@
         <v>0.05597014925373145</v>
       </c>
       <c r="I18">
-        <v>0.2358078602620088</v>
+        <v>0.06370035484521003</v>
       </c>
       <c r="J18">
         <v>0.2358078602620088</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.2358078602620088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>33.125</v>
       </c>
       <c r="F19">
-        <v>11.89935970306396</v>
+        <v>11.89935779571533</v>
       </c>
       <c r="G19">
         <v>2150</v>
@@ -934,13 +985,16 @@
         <v>-0.06360424028268552</v>
       </c>
       <c r="I19">
-        <v>0.1990950226244343</v>
+        <v>0.06484191866997033</v>
       </c>
       <c r="J19">
         <v>0.1990950226244343</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.1990950226244343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>38.5</v>
       </c>
       <c r="F20">
-        <v>13.8302001953125</v>
+        <v>13.83019733428955</v>
       </c>
       <c r="G20">
         <v>5950</v>
@@ -966,13 +1020,16 @@
         <v>0.1622641509433962</v>
       </c>
       <c r="I20">
-        <v>0.3050847457627119</v>
+        <v>0.07195634517707715</v>
       </c>
       <c r="J20">
         <v>0.3050847457627119</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.3050847457627119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>12.93213367462158</v>
+        <v>12.9321346282959</v>
       </c>
       <c r="G21">
         <v>9900</v>
@@ -998,13 +1055,16 @@
         <v>-0.06493506493506496</v>
       </c>
       <c r="I21">
-        <v>0.3031674208144797</v>
+        <v>0.07273488770741354</v>
       </c>
       <c r="J21">
         <v>0.3031674208144797</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.3031674208144797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>36.75</v>
       </c>
       <c r="F22">
-        <v>13.2015495300293</v>
+        <v>13.20155334472656</v>
       </c>
       <c r="G22">
         <v>5000</v>
@@ -1030,13 +1090,16 @@
         <v>0.02083333333333326</v>
       </c>
       <c r="I22">
-        <v>0.2250000000000001</v>
+        <v>0.07079844020341798</v>
       </c>
       <c r="J22">
         <v>0.2250000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.2250000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>40.125</v>
       </c>
       <c r="F23">
-        <v>14.43473434448242</v>
+        <v>14.43472957611084</v>
       </c>
       <c r="G23">
         <v>3450</v>
@@ -1062,13 +1125,16 @@
         <v>0.09183673469387754</v>
       </c>
       <c r="I23">
-        <v>0.3374999999999999</v>
+        <v>0.07086971744565843</v>
       </c>
       <c r="J23">
         <v>0.3374999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.3374999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>43.25</v>
       </c>
       <c r="F24">
-        <v>15.55893135070801</v>
+        <v>15.55893516540527</v>
       </c>
       <c r="G24">
         <v>3200</v>
@@ -1094,13 +1160,16 @@
         <v>0.0778816199376946</v>
       </c>
       <c r="I24">
-        <v>0.3307692307692307</v>
+        <v>0.07020348929063266</v>
       </c>
       <c r="J24">
         <v>0.3307692307692307</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.3307692307692307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>45</v>
       </c>
       <c r="F25">
-        <v>16.18848609924316</v>
+        <v>16.18848419189453</v>
       </c>
       <c r="G25">
         <v>2600</v>
@@ -1126,13 +1195,16 @@
         <v>0.04046242774566466</v>
       </c>
       <c r="I25">
-        <v>0.506276150627615</v>
+        <v>0.06867591855177978</v>
       </c>
       <c r="J25">
         <v>0.506276150627615</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.506276150627615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>53.75</v>
       </c>
       <c r="F26">
-        <v>19.33625030517578</v>
+        <v>19.33624839782715</v>
       </c>
       <c r="G26">
         <v>10450</v>
@@ -1158,13 +1230,16 @@
         <v>0.1944444444444444</v>
       </c>
       <c r="I26">
-        <v>0.7768595041322315</v>
+        <v>0.07558124014120603</v>
       </c>
       <c r="J26">
         <v>0.7768595041322315</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.7768595041322315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>52.75</v>
       </c>
       <c r="F27">
-        <v>18.97651100158691</v>
+        <v>18.97650527954102</v>
       </c>
       <c r="G27">
         <v>39250</v>
@@ -1190,13 +1265,16 @@
         <v>-0.01860465116279075</v>
       </c>
       <c r="I27">
-        <v>0.7438016528925619</v>
+        <v>0.07467153972667774</v>
       </c>
       <c r="J27">
         <v>0.7438016528925619</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.7438016528925619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>55.75</v>
       </c>
       <c r="F28">
-        <v>20.05573844909668</v>
+        <v>20.05573272705078</v>
       </c>
       <c r="G28">
         <v>7400</v>
@@ -1222,13 +1300,16 @@
         <v>0.05687203791469186</v>
       </c>
       <c r="I28">
-        <v>0.8278688524590163</v>
+        <v>0.07335646263018504</v>
       </c>
       <c r="J28">
         <v>0.8278688524590163</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.8278688524590163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1254,13 +1335,16 @@
         <v>-0.06278026905829592</v>
       </c>
       <c r="I29">
-        <v>0.5597014925373134</v>
+        <v>0.07415029225604496</v>
       </c>
       <c r="J29">
         <v>0.5597014925373134</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.5597014925373134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1286,13 +1370,16 @@
         <v>0.09569377990430628</v>
       </c>
       <c r="I30">
-        <v>0.6183745583038869</v>
+        <v>0.07390338948741706</v>
       </c>
       <c r="J30">
         <v>0.6183745583038869</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.6183745583038869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>44.75</v>
       </c>
       <c r="F31">
-        <v>17.3104419708252</v>
+        <v>17.31044769287109</v>
       </c>
       <c r="G31">
         <v>33550</v>
@@ -1318,13 +1405,16 @@
         <v>-0.2183406113537117</v>
       </c>
       <c r="I31">
-        <v>0.350943396226415</v>
+        <v>0.08595825670911143</v>
       </c>
       <c r="J31">
         <v>0.350943396226415</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.350943396226415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>43.375</v>
       </c>
       <c r="F32">
-        <v>16.77855491638184</v>
+        <v>16.7785587310791</v>
       </c>
       <c r="G32">
         <v>13550</v>
@@ -1350,13 +1440,16 @@
         <v>-0.03072625698324027</v>
       </c>
       <c r="I32">
-        <v>0.1266233766233766</v>
+        <v>0.08499326952033361</v>
       </c>
       <c r="J32">
         <v>0.1266233766233766</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0.1266233766233766</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>46.625</v>
       </c>
       <c r="F33">
-        <v>18.03573989868164</v>
+        <v>18.03574180603027</v>
       </c>
       <c r="G33">
         <v>25350</v>
@@ -1382,13 +1475,16 @@
         <v>0.0749279538904899</v>
       </c>
       <c r="I33">
-        <v>0.2951388888888888</v>
+        <v>0.08415659877976811</v>
       </c>
       <c r="J33">
         <v>0.2951388888888888</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.2951388888888888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>51.5</v>
       </c>
       <c r="F34">
-        <v>19.9215202331543</v>
+        <v>19.92152214050293</v>
       </c>
       <c r="G34">
         <v>26900</v>
@@ -1414,13 +1510,16 @@
         <v>0.1045576407506703</v>
       </c>
       <c r="I34">
-        <v>0.4013605442176871</v>
+        <v>0.08408798198236107</v>
       </c>
       <c r="J34">
         <v>0.4013605442176871</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.4013605442176871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>54.375</v>
       </c>
       <c r="F35">
-        <v>21.41360664367676</v>
+        <v>21.41361236572266</v>
       </c>
       <c r="G35">
         <v>4500</v>
@@ -1446,13 +1545,16 @@
         <v>0.05582524271844669</v>
       </c>
       <c r="I35">
-        <v>0.3551401869158879</v>
+        <v>0.08295068418117355</v>
       </c>
       <c r="J35">
         <v>0.3551401869158879</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.3551401869158879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>52</v>
       </c>
       <c r="F36">
-        <v>20.47830390930176</v>
+        <v>20.47830009460449</v>
       </c>
       <c r="G36">
         <v>7850</v>
@@ -1478,13 +1580,16 @@
         <v>-0.04367816091954024</v>
       </c>
       <c r="I36">
-        <v>0.2023121387283238</v>
+        <v>0.08252446758752309</v>
       </c>
       <c r="J36">
         <v>0.2023121387283238</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.2023121387283238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>50.375</v>
       </c>
       <c r="F37">
-        <v>19.83835220336914</v>
+        <v>19.83835411071777</v>
       </c>
       <c r="G37">
         <v>1100</v>
@@ -1510,13 +1615,16 @@
         <v>-0.03125</v>
       </c>
       <c r="I37">
-        <v>0.1194444444444445</v>
+        <v>0.0818135470190863</v>
       </c>
       <c r="J37">
         <v>0.1194444444444445</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0.1194444444444445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>52</v>
       </c>
       <c r="F38">
-        <v>20.47830390930176</v>
+        <v>20.47830009460449</v>
       </c>
       <c r="G38">
         <v>9850</v>
@@ -1542,13 +1650,16 @@
         <v>0.032258064516129</v>
       </c>
       <c r="I38">
-        <v>-0.03255813953488373</v>
+        <v>0.08065715651926218</v>
       </c>
       <c r="J38">
         <v>-0.03255813953488373</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.03255813953488373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>51.125</v>
       </c>
       <c r="F39">
-        <v>20.13371658325195</v>
+        <v>20.13371086120605</v>
       </c>
       <c r="G39">
         <v>10200</v>
@@ -1574,13 +1685,16 @@
         <v>-0.01682692307692313</v>
       </c>
       <c r="I39">
-        <v>-0.03080568720379151</v>
+        <v>0.07977904939792756</v>
       </c>
       <c r="J39">
         <v>-0.03080568720379151</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>-0.03080568720379151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1606,13 +1720,16 @@
         <v>-0.04645476772616142</v>
       </c>
       <c r="I40">
-        <v>-0.125560538116592</v>
+        <v>0.07944014571644689</v>
       </c>
       <c r="J40">
         <v>-0.125560538116592</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>-0.125560538116592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>49.125</v>
       </c>
       <c r="F41">
-        <v>19.34608268737793</v>
+        <v>19.3460865020752</v>
       </c>
       <c r="G41">
         <v>21700</v>
@@ -1638,13 +1755,16 @@
         <v>0.007692307692307665</v>
       </c>
       <c r="I41">
-        <v>-0.05980861244019142</v>
+        <v>0.07840795067671136</v>
       </c>
       <c r="J41">
         <v>-0.05980861244019142</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>-0.05980861244019142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>46.25</v>
       </c>
       <c r="F42">
-        <v>18.21387100219727</v>
+        <v>18.21387481689453</v>
       </c>
       <c r="G42">
         <v>4150</v>
@@ -1670,13 +1790,16 @@
         <v>-0.05852417302798985</v>
       </c>
       <c r="I42">
-        <v>-0.1921397379912664</v>
+        <v>0.07834797137058738</v>
       </c>
       <c r="J42">
         <v>-0.1921397379912664</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>-0.1921397379912664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>43.25</v>
       </c>
       <c r="F43">
-        <v>18.67547607421875</v>
+        <v>18.67547988891602</v>
       </c>
       <c r="G43">
         <v>6400</v>
@@ -1702,13 +1825,16 @@
         <v>-0.06486486486486487</v>
       </c>
       <c r="I43">
-        <v>-0.03351955307262566</v>
+        <v>0.07840041203478117</v>
       </c>
       <c r="J43">
         <v>-0.03351955307262566</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>-0.03351955307262566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>44.125</v>
       </c>
       <c r="F44">
-        <v>19.05330467224121</v>
+        <v>19.05330848693848</v>
       </c>
       <c r="G44">
         <v>1250</v>
@@ -1734,13 +1860,16 @@
         <v>0.02023121387283244</v>
       </c>
       <c r="I44">
-        <v>0.01729106628242083</v>
+        <v>0.07744333892421258</v>
       </c>
       <c r="J44">
         <v>0.01729106628242083</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.01729106628242083</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>43.25</v>
       </c>
       <c r="F45">
-        <v>18.67547607421875</v>
+        <v>18.67547988891602</v>
       </c>
       <c r="G45">
         <v>2800</v>
@@ -1766,13 +1895,16 @@
         <v>-0.01983002832861192</v>
       </c>
       <c r="I45">
-        <v>-0.07238605898123329</v>
+        <v>0.07669684288240253</v>
       </c>
       <c r="J45">
         <v>-0.07238605898123329</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>-0.07238605898123329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>43.25</v>
       </c>
       <c r="F46">
-        <v>18.67547607421875</v>
+        <v>18.67547988891602</v>
       </c>
       <c r="G46">
         <v>10900</v>
@@ -1798,13 +1930,16 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>-0.1601941747572816</v>
+        <v>0.07582872889734898</v>
       </c>
       <c r="J46">
         <v>-0.1601941747572816</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>-0.1601941747572816</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>50</v>
       </c>
       <c r="F47">
-        <v>21.59015083312988</v>
+        <v>21.59015274047852</v>
       </c>
       <c r="G47">
         <v>3250</v>
@@ -1830,13 +1965,16 @@
         <v>0.1560693641618498</v>
       </c>
       <c r="I47">
-        <v>-0.08045977011494254</v>
+        <v>0.0779132650278085</v>
       </c>
       <c r="J47">
         <v>-0.08045977011494254</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>-0.08045977011494254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>46.75</v>
       </c>
       <c r="F48">
-        <v>20.18679046630859</v>
+        <v>20.18679237365723</v>
       </c>
       <c r="G48">
         <v>12150</v>
@@ -1862,13 +2000,16 @@
         <v>-0.06499999999999995</v>
       </c>
       <c r="I48">
-        <v>-0.1009615384615384</v>
+        <v>0.07797986746870572</v>
       </c>
       <c r="J48">
         <v>-0.1009615384615384</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>-0.1009615384615384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1894,13 +2035,16 @@
         <v>0.1497326203208555</v>
       </c>
       <c r="I49">
-        <v>0.06699751861042191</v>
+        <v>0.07959307106394907</v>
       </c>
       <c r="J49">
         <v>0.06699751861042191</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.06699751861042191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>50</v>
       </c>
       <c r="F50">
-        <v>21.59015083312988</v>
+        <v>21.59015274047852</v>
       </c>
       <c r="G50">
         <v>9650</v>
@@ -1926,13 +2070,16 @@
         <v>-0.06976744186046513</v>
       </c>
       <c r="I50">
-        <v>-0.03846153846153844</v>
+        <v>0.07975063818917384</v>
       </c>
       <c r="J50">
         <v>-0.03846153846153844</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>-0.03846153846153844</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>46.75</v>
       </c>
       <c r="F51">
-        <v>20.18679046630859</v>
+        <v>20.18679237365723</v>
       </c>
       <c r="G51">
         <v>450</v>
@@ -1958,13 +2105,16 @@
         <v>-0.06499999999999995</v>
       </c>
       <c r="I51">
-        <v>-0.08557457212713937</v>
+        <v>0.07975968079691073</v>
       </c>
       <c r="J51">
         <v>-0.08557457212713937</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>-0.08557457212713937</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>49.25</v>
       </c>
       <c r="F52">
-        <v>21.26629829406738</v>
+        <v>21.26630020141602</v>
       </c>
       <c r="G52">
         <v>2350</v>
@@ -1990,13 +2140,16 @@
         <v>0.053475935828877</v>
       </c>
       <c r="I52">
-        <v>0.01025641025641022</v>
+        <v>0.07913518405535569</v>
       </c>
       <c r="J52">
         <v>0.01025641025641022</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.01025641025641022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>52</v>
       </c>
       <c r="F53">
-        <v>22.45376014709473</v>
+        <v>22.45375633239746</v>
       </c>
       <c r="G53">
         <v>13550</v>
@@ -2022,13 +2175,16 @@
         <v>0.05583756345177671</v>
       </c>
       <c r="I53">
-        <v>0.05852417302798973</v>
+        <v>0.07854680559740883</v>
       </c>
       <c r="J53">
         <v>0.05852417302798973</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.05852417302798973</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>50</v>
       </c>
       <c r="F54">
-        <v>21.59015083312988</v>
+        <v>21.59015274047852</v>
       </c>
       <c r="G54">
         <v>450</v>
@@ -2054,13 +2210,16 @@
         <v>-0.03846153846153844</v>
       </c>
       <c r="I54">
-        <v>0.08108108108108114</v>
+        <v>0.07813798623737124</v>
       </c>
       <c r="J54">
         <v>0.08108108108108114</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0.08108108108108114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>44.75</v>
       </c>
       <c r="F55">
-        <v>21.24983596801758</v>
+        <v>21.24984169006348</v>
       </c>
       <c r="G55">
         <v>15800</v>
@@ -2086,13 +2245,16 @@
         <v>-0.105</v>
       </c>
       <c r="I55">
-        <v>0.03468208092485559</v>
+        <v>0.0791160792540417</v>
       </c>
       <c r="J55">
         <v>0.03468208092485559</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0.03468208092485559</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>42.5</v>
       </c>
       <c r="F56">
-        <v>20.18140602111816</v>
+        <v>20.18140983581543</v>
       </c>
       <c r="G56">
         <v>5200</v>
@@ -2118,13 +2280,16 @@
         <v>-0.05027932960893855</v>
       </c>
       <c r="I56">
-        <v>-0.03682719546742208</v>
+        <v>0.07883240737493549</v>
       </c>
       <c r="J56">
         <v>-0.03682719546742208</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.03682719546742208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>43.5</v>
       </c>
       <c r="F57">
-        <v>20.65626335144043</v>
+        <v>20.6562671661377</v>
       </c>
       <c r="G57">
         <v>16750</v>
@@ -2150,13 +2315,16 @@
         <v>0.0235294117647058</v>
       </c>
       <c r="I57">
-        <v>0.005780346820809301</v>
+        <v>0.07811599905384148</v>
       </c>
       <c r="J57">
         <v>0.005780346820809301</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>0.005780346820809301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>45.25</v>
       </c>
       <c r="F58">
-        <v>21.48725891113281</v>
+        <v>21.48726463317871</v>
       </c>
       <c r="G58">
         <v>113050</v>
@@ -2182,13 +2350,16 @@
         <v>0.04022988505747116</v>
       </c>
       <c r="I58">
-        <v>0.04624277456647397</v>
+        <v>0.07749651473934185</v>
       </c>
       <c r="J58">
         <v>0.04624277456647397</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>0.04624277456647397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>45.25</v>
       </c>
       <c r="F59">
-        <v>23.99008750915527</v>
+        <v>23.99008369445801</v>
       </c>
       <c r="G59">
         <v>21700</v>
@@ -2214,13 +2385,16 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>-0.09499999999999997</v>
+        <v>0.07681845404478949</v>
       </c>
       <c r="J59">
         <v>-0.09499999999999997</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.09499999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>45.68000030517578</v>
       </c>
       <c r="F60">
-        <v>24.21806526184082</v>
+        <v>24.21806144714355</v>
       </c>
       <c r="G60">
         <v>45400</v>
@@ -2246,13 +2420,16 @@
         <v>0.009502769175155468</v>
       </c>
       <c r="I60">
-        <v>-0.02288769400693513</v>
+        <v>0.07614232270472292</v>
       </c>
       <c r="J60">
         <v>-0.02288769400693513</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.02288769400693513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>41.31999969482422</v>
       </c>
       <c r="F61">
-        <v>21.90653419494629</v>
+        <v>21.90653610229492</v>
       </c>
       <c r="G61">
         <v>31050</v>
@@ -2278,13 +2455,16 @@
         <v>-0.09544659766251251</v>
       </c>
       <c r="I61">
-        <v>-0.2312558196311774</v>
+        <v>0.07676685464752291</v>
       </c>
       <c r="J61">
         <v>-0.2312558196311774</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.2312558196311774</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>38.70000076293945</v>
       </c>
       <c r="F62">
-        <v>20.51749420166016</v>
+        <v>20.51749038696289</v>
       </c>
       <c r="G62">
         <v>13400</v>
@@ -2310,13 +2490,16 @@
         <v>-0.06340752544131667</v>
       </c>
       <c r="I62">
-        <v>-0.225999984741211</v>
+        <v>0.07670313644475976</v>
       </c>
       <c r="J62">
         <v>-0.225999984741211</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.225999984741211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>40.52000045776367</v>
       </c>
       <c r="F63">
-        <v>21.48240280151367</v>
+        <v>21.48239898681641</v>
       </c>
       <c r="G63">
         <v>28200</v>
@@ -2342,13 +2525,16 @@
         <v>0.04702841495980326</v>
       </c>
       <c r="I63">
-        <v>-0.1332620222938252</v>
+        <v>0.07621780707356333</v>
       </c>
       <c r="J63">
         <v>-0.1332620222938252</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.1332620222938252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>37.38000106811523</v>
       </c>
       <c r="F64">
-        <v>19.81767463684082</v>
+        <v>19.81767082214355</v>
       </c>
       <c r="G64">
         <v>3350</v>
@@ -2374,13 +2560,16 @@
         <v>-0.07749258031034423</v>
       </c>
       <c r="I64">
-        <v>-0.241015206738777</v>
+        <v>0.07639396103862954</v>
       </c>
       <c r="J64">
         <v>-0.241015206738777</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.241015206738777</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>35.79999923706055</v>
       </c>
       <c r="F65">
-        <v>18.98000526428223</v>
+        <v>18.98000907897949</v>
       </c>
       <c r="G65">
         <v>1900</v>
@@ -2406,13 +2595,16 @@
         <v>-0.04226864060746138</v>
       </c>
       <c r="I65">
-        <v>-0.3115384762103741</v>
+        <v>0.07604080201447189</v>
       </c>
       <c r="J65">
         <v>-0.3115384762103741</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.3115384762103741</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2438,13 +2630,16 @@
         <v>0.02513970796254128</v>
       </c>
       <c r="I66">
-        <v>-0.2659999847412109</v>
+        <v>0.07546778172594773</v>
       </c>
       <c r="J66">
         <v>-0.2659999847412109</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.2659999847412109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2470,13 +2665,16 @@
         <v>-0.03215259620286914</v>
       </c>
       <c r="I67">
-        <v>-0.2062569730108677</v>
+        <v>0.07503799988306487</v>
       </c>
       <c r="J67">
         <v>-0.2062569730108677</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.2062569730108677</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>30.20000076293945</v>
       </c>
       <c r="F68">
-        <v>16.2896614074707</v>
+        <v>16.28965950012207</v>
       </c>
       <c r="G68">
         <v>1150</v>
@@ -2502,13 +2700,16 @@
         <v>-0.1497747642528934</v>
       </c>
       <c r="I68">
-        <v>-0.2894117467543658</v>
+        <v>0.07691811170424102</v>
       </c>
       <c r="J68">
         <v>-0.2894117467543658</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.2894117467543658</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>31.28000068664551</v>
       </c>
       <c r="F69">
-        <v>16.87220191955566</v>
+        <v>16.87220001220703</v>
       </c>
       <c r="G69">
         <v>5250</v>
@@ -2534,13 +2735,16 @@
         <v>0.03576158597424262</v>
       </c>
       <c r="I69">
-        <v>-0.2809195244449308</v>
+        <v>0.07642799832649494</v>
       </c>
       <c r="J69">
         <v>-0.2809195244449308</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.2809195244449308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>31.79999923706055</v>
       </c>
       <c r="F70">
-        <v>17.15268516540527</v>
+        <v>17.15268707275391</v>
       </c>
       <c r="G70">
         <v>750</v>
@@ -2566,13 +2770,16 @@
         <v>0.01662399421356286</v>
       </c>
       <c r="I70">
-        <v>-0.2972375859213139</v>
+        <v>0.07586842734695892</v>
       </c>
       <c r="J70">
         <v>-0.2972375859213139</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.2972375859213139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>32.20000076293945</v>
       </c>
       <c r="F71">
-        <v>17.36844635009766</v>
+        <v>17.36844253540039</v>
       </c>
       <c r="G71">
         <v>2200</v>
@@ -2598,13 +2805,16 @@
         <v>0.0125786646375996</v>
       </c>
       <c r="I71">
-        <v>-0.2883977731947083</v>
+        <v>0.07531368250921772</v>
       </c>
       <c r="J71">
         <v>-0.2883977731947083</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.2883977731947083</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>31.29999923706055</v>
       </c>
       <c r="F72">
-        <v>16.88298797607422</v>
+        <v>16.88298988342285</v>
       </c>
       <c r="G72">
         <v>3850</v>
@@ -2630,13 +2840,16 @@
         <v>-0.02795035728430051</v>
       </c>
       <c r="I72">
-        <v>-0.3147986202286848</v>
+        <v>0.07487180302567156</v>
       </c>
       <c r="J72">
         <v>-0.3147986202286848</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.3147986202286848</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>31.36000061035156</v>
       </c>
       <c r="F73">
-        <v>16.91535186767578</v>
+        <v>16.91535377502441</v>
       </c>
       <c r="G73">
         <v>600</v>
@@ -2662,13 +2875,16 @@
         <v>0.0019169768291869</v>
       </c>
       <c r="I73">
-        <v>-0.2410454781711979</v>
+        <v>0.07433590895227066</v>
       </c>
       <c r="J73">
         <v>-0.2410454781711979</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.2410454781711979</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>33.2599983215332</v>
       </c>
       <c r="F74">
-        <v>17.94020080566406</v>
+        <v>17.9401969909668</v>
       </c>
       <c r="G74">
         <v>950</v>
@@ -2694,13 +2910,16 @@
         <v>0.06058666052941564</v>
       </c>
       <c r="I74">
-        <v>-0.1405685357664332</v>
+        <v>0.07410245110377758</v>
       </c>
       <c r="J74">
         <v>-0.1405685357664332</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>-0.1405685357664332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>33.40000152587891</v>
       </c>
       <c r="F75">
-        <v>18.01571273803711</v>
+        <v>18.01571846008301</v>
       </c>
       <c r="G75">
         <v>5000</v>
@@ -2726,13 +2945,16 @@
         <v>0.00420935692756963</v>
       </c>
       <c r="I75">
-        <v>-0.1757156676073178</v>
+        <v>0.07358623313136758</v>
       </c>
       <c r="J75">
         <v>-0.1757156676073178</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.1757156676073178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>33.11999893188477</v>
       </c>
       <c r="F76">
-        <v>17.86468505859375</v>
+        <v>17.86468696594238</v>
       </c>
       <c r="G76">
         <v>12750</v>
@@ -2758,13 +2980,16 @@
         <v>-0.008383310814437883</v>
       </c>
       <c r="I76">
-        <v>-0.1139647408909308</v>
+        <v>0.07309852336362267</v>
       </c>
       <c r="J76">
         <v>-0.1139647408909308</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>-0.1139647408909308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>32.93999862670898</v>
       </c>
       <c r="F77">
-        <v>17.7675895690918</v>
+        <v>17.76759338378906</v>
       </c>
       <c r="G77">
         <v>1600</v>
@@ -2790,13 +3015,16 @@
         <v>-0.005434791998211508</v>
       </c>
       <c r="I77">
-        <v>-0.07988828690786276</v>
+        <v>0.07261371033626818</v>
       </c>
       <c r="J77">
         <v>-0.07988828690786276</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>-0.07988828690786276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>30</v>
       </c>
       <c r="F78">
-        <v>16.1817798614502</v>
+        <v>16.18178367614746</v>
       </c>
       <c r="G78">
         <v>7150</v>
@@ -2822,13 +3050,16 @@
         <v>-0.0892531496441874</v>
       </c>
       <c r="I78">
-        <v>-0.1825613248952648</v>
+        <v>0.07293811831771654</v>
       </c>
       <c r="J78">
         <v>-0.1825613248952648</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.1825613248952648</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>30.05999946594238</v>
       </c>
       <c r="F79">
-        <v>16.21414566040039</v>
+        <v>16.21414375305176</v>
       </c>
       <c r="G79">
         <v>13900</v>
@@ -2854,13 +3085,16 @@
         <v>0.001999982198079397</v>
       </c>
       <c r="I79">
-        <v>-0.1537162421580962</v>
+        <v>0.0724570356464545</v>
       </c>
       <c r="J79">
         <v>-0.1537162421580962</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.1537162421580962</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>26.28000068664551</v>
       </c>
       <c r="F80">
-        <v>14.17524242401123</v>
+        <v>14.17524337768555</v>
       </c>
       <c r="G80">
         <v>300</v>
@@ -2886,13 +3120,16 @@
         <v>-0.1257484646192216</v>
       </c>
       <c r="I80">
-        <v>-0.1298013237504435</v>
+        <v>0.07346847992667507</v>
       </c>
       <c r="J80">
         <v>-0.1298013237504435</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.1298013237504435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>27.89999961853027</v>
       </c>
       <c r="F81">
-        <v>15.04905796051025</v>
+        <v>15.04905414581299</v>
       </c>
       <c r="G81">
         <v>3000</v>
@@ -2918,13 +3155,16 @@
         <v>0.0616437933621512</v>
       </c>
       <c r="I81">
-        <v>-0.1080562977595544</v>
+        <v>0.07330050213852857</v>
       </c>
       <c r="J81">
         <v>-0.1080562977595544</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.1080562977595544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>30.70000076293945</v>
       </c>
       <c r="F82">
-        <v>16.55935478210449</v>
+        <v>16.55935287475586</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2950,13 +3190,16 @@
         <v>0.1003584653294944</v>
       </c>
       <c r="I82">
-        <v>-0.03459114781484418</v>
+        <v>0.07364278018915475</v>
       </c>
       <c r="J82">
         <v>-0.03459114781484418</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.03459114781484418</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>29.20000076293945</v>
       </c>
       <c r="F83">
-        <v>16.15661239624023</v>
+        <v>16.1566104888916</v>
       </c>
       <c r="G83">
         <v>350</v>
@@ -2982,13 +3225,16 @@
         <v>-0.04885993363918006</v>
       </c>
       <c r="I83">
-        <v>-0.0931676996558598</v>
+        <v>0.07341894583421375</v>
       </c>
       <c r="J83">
         <v>-0.0931676996558598</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.0931676996558598</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3014,13 +3260,16 @@
         <v>0.002054776177216278</v>
       </c>
       <c r="I84">
-        <v>-0.06517568875092061</v>
+        <v>0.07296454291639481</v>
       </c>
       <c r="J84">
         <v>-0.06517568875092061</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.06517568875092061</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3046,13 +3295,16 @@
         <v>0.02665757623185483</v>
       </c>
       <c r="I85">
-        <v>-0.04209182618410101</v>
+        <v>0.07256237388309141</v>
       </c>
       <c r="J85">
         <v>-0.04209182618410101</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.04209182618410101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>27.86000061035156</v>
       </c>
       <c r="F86">
-        <v>15.41517925262451</v>
+        <v>15.41518020629883</v>
       </c>
       <c r="G86">
         <v>950</v>
@@ -3078,13 +3330,16 @@
         <v>-0.07256991473821706</v>
       </c>
       <c r="I86">
-        <v>-0.1623571251861902</v>
+        <v>0.07260481009754464</v>
       </c>
       <c r="J86">
         <v>-0.1623571251861902</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.1623571251861902</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>31.57999992370605</v>
       </c>
       <c r="F87">
-        <v>17.47349166870117</v>
+        <v>17.47348785400391</v>
       </c>
       <c r="G87">
         <v>500</v>
@@ -3110,13 +3365,16 @@
         <v>0.1335247391190761</v>
       </c>
       <c r="I87">
-        <v>-0.05449106344389487</v>
+        <v>0.07354723173574966</v>
       </c>
       <c r="J87">
         <v>-0.05449106344389487</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.05449106344389487</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>35.27999877929688</v>
       </c>
       <c r="F88">
-        <v>19.52072525024414</v>
+        <v>19.52072715759277</v>
       </c>
       <c r="G88">
         <v>4150</v>
@@ -3142,13 +3400,16 @@
         <v>0.1171627252859286</v>
       </c>
       <c r="I88">
-        <v>0.06521738880047701</v>
+        <v>0.07411549887544679</v>
       </c>
       <c r="J88">
         <v>0.06521738880047701</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>0.06521738880047701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>34.7599983215332</v>
       </c>
       <c r="F89">
-        <v>19.23300743103027</v>
+        <v>19.23300552368164</v>
       </c>
       <c r="G89">
         <v>6250</v>
@@ -3174,13 +3435,16 @@
         <v>-0.01473924251008818</v>
       </c>
       <c r="I89">
-        <v>0.05525196632365659</v>
+        <v>0.07371631488000228</v>
       </c>
       <c r="J89">
         <v>0.05525196632365659</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>0.05525196632365659</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>34.47999954223633</v>
       </c>
       <c r="F90">
-        <v>19.07808303833008</v>
+        <v>19.07808113098145</v>
       </c>
       <c r="G90">
         <v>7050</v>
@@ -3206,13 +3470,16 @@
         <v>-0.008055201174259619</v>
       </c>
       <c r="I90">
-        <v>0.1493333180745442</v>
+        <v>0.07330586541466767</v>
       </c>
       <c r="J90">
         <v>0.1493333180745442</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.1493333180745442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3238,13 +3505,16 @@
         <v>-0.03480280681180148</v>
       </c>
       <c r="I91">
-        <v>0.1071190742036676</v>
+        <v>0.07301284868493771</v>
       </c>
       <c r="J91">
         <v>0.1071190742036676</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.1071190742036676</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>34.63999938964844</v>
       </c>
       <c r="F92">
-        <v>19.16661071777344</v>
+        <v>19.16661643981934</v>
       </c>
       <c r="G92">
         <v>6000</v>
@@ -3270,13 +3540,16 @@
         <v>0.04086540445420939</v>
       </c>
       <c r="I92">
-        <v>0.318112575516452</v>
+        <v>0.0726999664026612</v>
       </c>
       <c r="J92">
         <v>0.318112575516452</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.318112575516452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>36.36000061035156</v>
       </c>
       <c r="F93">
-        <v>20.1183032989502</v>
+        <v>20.11830139160156</v>
       </c>
       <c r="G93">
         <v>19950</v>
@@ -3302,13 +3575,16 @@
         <v>0.04965361579126126</v>
       </c>
       <c r="I93">
-        <v>0.3032258461466943</v>
+        <v>0.07244376275338976</v>
       </c>
       <c r="J93">
         <v>0.3032258461466943</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.3032258461466943</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>38.90000152587891</v>
       </c>
       <c r="F94">
-        <v>21.52370834350586</v>
+        <v>21.52370452880859</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3334,13 +3610,16 @@
         <v>0.06985700970544584</v>
       </c>
       <c r="I94">
-        <v>0.2671009954122985</v>
+        <v>0.07235284573840993</v>
       </c>
       <c r="J94">
         <v>0.2671009954122985</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.2671009954122985</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3366,13 +3645,16 @@
         <v>0.01388167299867171</v>
       </c>
       <c r="I95">
-        <v>0.3506848491855556</v>
+        <v>0.07196255098146795</v>
       </c>
       <c r="J95">
         <v>0.3506848491855556</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.3506848491855556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>40.61999893188477</v>
       </c>
       <c r="F96">
-        <v>23.59840393066406</v>
+        <v>23.59840202331543</v>
       </c>
       <c r="G96">
         <v>31950</v>
@@ -3398,13 +3680,16 @@
         <v>0.02991887287685335</v>
       </c>
       <c r="I96">
-        <v>0.3882432882481577</v>
+        <v>0.0716148644164461</v>
       </c>
       <c r="J96">
         <v>0.3882432882481577</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.3882432882481577</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>41.04000091552734</v>
       </c>
       <c r="F97">
-        <v>23.8424015045166</v>
+        <v>23.84240531921387</v>
       </c>
       <c r="G97">
         <v>57050</v>
@@ -3430,13 +3715,16 @@
         <v>0.01033978322714568</v>
       </c>
       <c r="I97">
-        <v>0.3661784176016527</v>
+        <v>0.07123379532100907</v>
       </c>
       <c r="J97">
         <v>0.3661784176016527</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.3661784176016527</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>39.52000045776367</v>
       </c>
       <c r="F98">
-        <v>22.9593505859375</v>
+        <v>22.95935249328613</v>
       </c>
       <c r="G98">
         <v>6050</v>
@@ -3462,13 +3750,16 @@
         <v>-0.03703704736489377</v>
       </c>
       <c r="I98">
-        <v>0.4185211626693131</v>
+        <v>0.07099981018715</v>
       </c>
       <c r="J98">
         <v>0.4185211626693131</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.4185211626693131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>39.93999862670898</v>
       </c>
       <c r="F99">
-        <v>23.20335388183594</v>
+        <v>23.20335006713867</v>
       </c>
       <c r="G99">
         <v>34800</v>
@@ -3494,13 +3785,16 @@
         <v>0.01062748390891799</v>
       </c>
       <c r="I99">
-        <v>0.2647244687523687</v>
+        <v>0.07063031420854643</v>
       </c>
       <c r="J99">
         <v>0.2647244687523687</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.2647244687523687</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>40.38000106811523</v>
       </c>
       <c r="F100">
-        <v>23.45896911621094</v>
+        <v>23.4589729309082</v>
       </c>
       <c r="G100">
         <v>8900</v>
@@ -3526,13 +3820,16 @@
         <v>0.01101658629281999</v>
       </c>
       <c r="I100">
-        <v>0.1445578930068205</v>
+        <v>0.07026677139061424</v>
       </c>
       <c r="J100">
         <v>0.1445578930068205</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.1445578930068205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>42.06000137329102</v>
       </c>
       <c r="F101">
-        <v>24.43498611450195</v>
+        <v>24.43498229980469</v>
       </c>
       <c r="G101">
         <v>2900</v>
@@ -3558,13 +3855,16 @@
         <v>0.04160476128620849</v>
       </c>
       <c r="I101">
-        <v>0.2100116054158607</v>
+        <v>0.0699960359599283</v>
       </c>
       <c r="J101">
         <v>0.2100116054158607</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.2100116054158607</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>40.59999847412109</v>
       </c>
       <c r="F102">
-        <v>23.5867862701416</v>
+        <v>23.58679008483887</v>
       </c>
       <c r="G102">
         <v>6800</v>
@@ -3590,13 +3890,16 @@
         <v>-0.03471238353541883</v>
       </c>
       <c r="I102">
-        <v>0.1774941709145925</v>
+        <v>0.06976589829945125</v>
       </c>
       <c r="J102">
         <v>0.1774941709145925</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.1774941709145925</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>40.70000076293945</v>
       </c>
       <c r="F103">
-        <v>23.6448802947998</v>
+        <v>23.64488220214844</v>
       </c>
       <c r="G103">
         <v>8050</v>
@@ -3622,13 +3925,16 @@
         <v>0.002463110654600253</v>
       </c>
       <c r="I103">
-        <v>0.2229567985518821</v>
+        <v>0.06941735138927525</v>
       </c>
       <c r="J103">
         <v>0.2229567985518821</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.2229567985518821</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3645,7 +3951,7 @@
         <v>42.84000015258789</v>
       </c>
       <c r="F104">
-        <v>24.88812446594238</v>
+        <v>24.88811874389648</v>
       </c>
       <c r="G104">
         <v>1350</v>
@@ -3654,13 +3960,16 @@
         <v>0.05257983659786736</v>
       </c>
       <c r="I104">
-        <v>0.2367205804683092</v>
+        <v>0.06922366858625328</v>
       </c>
       <c r="J104">
         <v>0.2367205804683092</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.2367205804683092</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>45.5</v>
       </c>
       <c r="F105">
-        <v>26.4334659576416</v>
+        <v>26.43346405029297</v>
       </c>
       <c r="G105">
         <v>4350</v>
@@ -3686,13 +3995,16 @@
         <v>0.06209149948500703</v>
       </c>
       <c r="I105">
-        <v>0.2513751165077349</v>
+        <v>0.06909778010019879</v>
       </c>
       <c r="J105">
         <v>0.2513751165077349</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.2513751165077349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>48.91999816894531</v>
       </c>
       <c r="F106">
-        <v>28.42033576965332</v>
+        <v>28.42032814025879</v>
       </c>
       <c r="G106">
         <v>19150</v>
@@ -3718,13 +4030,16 @@
         <v>0.075164794921875</v>
       </c>
       <c r="I106">
-        <v>0.2575834511574615</v>
+        <v>0.06908145785959859</v>
       </c>
       <c r="J106">
         <v>0.2575834511574615</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.2575834511574615</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3750,13 +4065,16 @@
         <v>0.0466067595939017</v>
       </c>
       <c r="I107">
-        <v>0.2981745067370902</v>
+        <v>0.06885119473742027</v>
       </c>
       <c r="J107">
         <v>0.2981745067370902</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.2981745067370902</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>50.2599983215332</v>
       </c>
       <c r="F108">
-        <v>29.94571304321289</v>
+        <v>29.94570922851562</v>
       </c>
       <c r="G108">
         <v>13050</v>
@@ -3782,13 +4100,16 @@
         <v>-0.0183594224101391</v>
       </c>
       <c r="I108">
-        <v>0.237321507708891</v>
+        <v>0.06857204589319292</v>
       </c>
       <c r="J108">
         <v>0.237321507708891</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.237321507708891</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>51.68000030517578</v>
       </c>
       <c r="F109">
-        <v>30.79177665710449</v>
+        <v>30.79178237915039</v>
       </c>
       <c r="G109">
         <v>39550</v>
@@ -3814,13 +4135,16 @@
         <v>0.02825312437454253</v>
       </c>
       <c r="I109">
-        <v>0.2592592386035457</v>
+        <v>0.06827533362514768</v>
       </c>
       <c r="J109">
         <v>0.2592592386035457</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.2592592386035457</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>51.58000183105469</v>
       </c>
       <c r="F110">
-        <v>30.73219108581543</v>
+        <v>30.73220062255859</v>
       </c>
       <c r="G110">
         <v>11400</v>
@@ -3846,13 +4170,16 @@
         <v>-0.001934954983177084</v>
       </c>
       <c r="I110">
-        <v>0.3051619745343863</v>
+        <v>0.06796281025180852</v>
       </c>
       <c r="J110">
         <v>0.3051619745343863</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.3051619745343863</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>49.02000045776367</v>
       </c>
       <c r="F111">
-        <v>29.20689392089844</v>
+        <v>29.2069034576416</v>
       </c>
       <c r="G111">
         <v>1400</v>
@@ -3878,13 +4205,16 @@
         <v>-0.04963166503320515</v>
       </c>
       <c r="I111">
-        <v>0.2273410651792722</v>
+        <v>0.06787462319117332</v>
       </c>
       <c r="J111">
         <v>0.2273410651792722</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.2273410651792722</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>48.59999847412109</v>
       </c>
       <c r="F112">
-        <v>28.95666122436523</v>
+        <v>28.95665740966797</v>
       </c>
       <c r="G112">
         <v>43450</v>
@@ -3910,13 +4240,16 @@
         <v>-0.008567971842522892</v>
       </c>
       <c r="I112">
-        <v>0.203566052218273</v>
+        <v>0.06758050539102828</v>
       </c>
       <c r="J112">
         <v>0.203566052218273</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.203566052218273</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>49.2599983215332</v>
       </c>
       <c r="F113">
-        <v>29.34989929199219</v>
+        <v>29.34988594055176</v>
       </c>
       <c r="G113">
         <v>4300</v>
@@ -3942,13 +4275,16 @@
         <v>0.01358024420028636</v>
       </c>
       <c r="I113">
-        <v>0.1711839446780032</v>
+        <v>0.06727499917700695</v>
       </c>
       <c r="J113">
         <v>0.1711839446780032</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.1711839446780032</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>51.11999893188477</v>
       </c>
       <c r="F114">
-        <v>30.45811462402344</v>
+        <v>30.45811653137207</v>
       </c>
       <c r="G114">
         <v>1150</v>
@@ -3974,13 +4310,16 @@
         <v>0.03775884437126531</v>
       </c>
       <c r="I114">
-        <v>0.2591133215058923</v>
+        <v>0.06703158362040547</v>
       </c>
       <c r="J114">
         <v>0.2591133215058923</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.2591133215058923</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>51.88000106811523</v>
       </c>
       <c r="F115">
-        <v>30.91093254089355</v>
+        <v>30.91094207763672</v>
       </c>
       <c r="G115">
         <v>10900</v>
@@ -4006,13 +4345,16 @@
         <v>0.01486702175489363</v>
       </c>
       <c r="I115">
-        <v>0.274692877041812</v>
+        <v>0.06673484464168936</v>
       </c>
       <c r="J115">
         <v>0.274692877041812</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.274692877041812</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4038,13 +4380,16 @@
         <v>0.0142636439578705</v>
       </c>
       <c r="I116">
-        <v>0.2282912872190099</v>
+        <v>0.06644148908425301</v>
       </c>
       <c r="J116">
         <v>0.2282912872190099</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.2282912872190099</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4070,13 +4415,16 @@
         <v>-0.06119341450717364</v>
       </c>
       <c r="I117">
-        <v>0.08571431925008577</v>
+        <v>0.06646390017568753</v>
       </c>
       <c r="J117">
         <v>0.08571431925008577</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.08571431925008577</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>49.95999908447266</v>
       </c>
       <c r="F118">
-        <v>29.76696586608887</v>
+        <v>29.76698303222656</v>
       </c>
       <c r="G118">
         <v>5700</v>
@@ -4102,13 +4450,16 @@
         <v>0.01133598261733626</v>
       </c>
       <c r="I118">
-        <v>0.0212592182022513</v>
+        <v>0.06617527651973359</v>
       </c>
       <c r="J118">
         <v>0.0212592182022513</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.0212592182022513</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>51.15999984741211</v>
       </c>
       <c r="F119">
-        <v>31.07852935791016</v>
+        <v>31.07852745056152</v>
       </c>
       <c r="G119">
         <v>5150</v>
@@ -4134,13 +4485,16 @@
         <v>0.02401923108346105</v>
       </c>
       <c r="I119">
-        <v>-0.000781267869751634</v>
+        <v>0.06590714091493165</v>
       </c>
       <c r="J119">
         <v>-0.000781267869751634</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>-0.000781267869751634</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>53.90000152587891</v>
       </c>
       <c r="F120">
-        <v>32.74301910400391</v>
+        <v>32.74300384521484</v>
       </c>
       <c r="G120">
         <v>5250</v>
@@ -4166,13 +4520,16 @@
         <v>0.05355749973883928</v>
       </c>
       <c r="I120">
-        <v>0.07242346450270754</v>
+        <v>0.06576093525206232</v>
       </c>
       <c r="J120">
         <v>0.07242346450270754</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.07242346450270754</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>54.47999954223633</v>
       </c>
       <c r="F121">
-        <v>33.09534072875977</v>
+        <v>33.09535217285156</v>
       </c>
       <c r="G121">
         <v>16050</v>
@@ -4198,13 +4555,16 @@
         <v>0.01076063079662348</v>
       </c>
       <c r="I121">
-        <v>0.05417955148077125</v>
+        <v>0.06548217645960629</v>
       </c>
       <c r="J121">
         <v>0.05417955148077125</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.05417955148077125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>55.79999923706055</v>
       </c>
       <c r="F122">
-        <v>33.89722061157227</v>
+        <v>33.89721298217773</v>
       </c>
       <c r="G122">
         <v>4150</v>
@@ -4230,13 +4590,16 @@
         <v>0.02422906949183923</v>
       </c>
       <c r="I122">
-        <v>0.08181460364867865</v>
+        <v>0.06522320050191729</v>
       </c>
       <c r="J122">
         <v>0.08181460364867865</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.08181460364867865</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4253,7 +4616,7 @@
         <v>58.77999877929688</v>
       </c>
       <c r="F123">
-        <v>35.70750427246094</v>
+        <v>35.7075080871582</v>
       </c>
       <c r="G123">
         <v>31600</v>
@@ -4262,13 +4625,16 @@
         <v>0.05340501044769019</v>
       </c>
       <c r="I123">
-        <v>0.1991023710810154</v>
+        <v>0.06432116598115792</v>
       </c>
       <c r="J123">
         <v>0.1991023710810154</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.1991023710810154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>58.09999847412109</v>
       </c>
       <c r="F124">
-        <v>35.29441070556641</v>
+        <v>35.2944221496582</v>
       </c>
       <c r="G124">
         <v>19500</v>
@@ -4294,13 +4660,16 @@
         <v>-0.01156856616702218</v>
       </c>
       <c r="I124">
-        <v>0.1954732571660189</v>
+        <v>0.06434117341799411</v>
       </c>
       <c r="J124">
         <v>0.1954732571660189</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.1954732571660189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>58.5</v>
       </c>
       <c r="F125">
-        <v>35.53740692138672</v>
+        <v>35.53740310668945</v>
       </c>
       <c r="G125">
         <v>15600</v>
@@ -4326,13 +4695,16 @@
         <v>0.006884708027265596</v>
       </c>
       <c r="I125">
-        <v>0.1875761671398126</v>
+        <v>0.06434046472271868</v>
       </c>
       <c r="J125">
         <v>0.1875761671398126</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.1875761671398126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4358,13 +4730,16 @@
         <v>0.005811968420305735</v>
       </c>
       <c r="I126">
-        <v>0.1510172414320607</v>
+        <v>0.06395388245620198</v>
       </c>
       <c r="J126">
         <v>0.1510172414320607</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.1510172414320607</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>61.2599983215332</v>
       </c>
       <c r="F127">
-        <v>37.21404647827148</v>
+        <v>37.21405029296875</v>
       </c>
       <c r="G127">
         <v>33450</v>
@@ -4390,13 +4765,16 @@
         <v>0.04112845279859978</v>
       </c>
       <c r="I127">
-        <v>0.1808017937606172</v>
+        <v>0.06390114088257749</v>
       </c>
       <c r="J127">
         <v>0.1808017937606172</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.1808017937606172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4422,13 +4800,16 @@
         <v>-0.004897147327460716</v>
       </c>
       <c r="I128">
-        <v>0.1584948749881923</v>
+        <v>0.06367967274014495</v>
       </c>
       <c r="J128">
         <v>0.1584948749881923</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.1584948749881923</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4454,13 +4835,16 @@
         <v>0.03510497739153551</v>
       </c>
       <c r="I129">
-        <v>0.2773278648800293</v>
+        <v>0.06338315848220823</v>
       </c>
       <c r="J129">
         <v>0.2773278648800293</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.2773278648800293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>66.80000305175781</v>
       </c>
       <c r="F130">
-        <v>40.57946395874023</v>
+        <v>40.57947540283203</v>
       </c>
       <c r="G130">
         <v>25050</v>
@@ -4486,13 +4870,16 @@
         <v>0.0586371579573679</v>
       </c>
       <c r="I130">
-        <v>0.3370697413106829</v>
+        <v>0.06315255195870512</v>
       </c>
       <c r="J130">
         <v>0.3370697413106829</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.3370697413106829</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>66.41999816894531</v>
       </c>
       <c r="F131">
-        <v>41.16139221191406</v>
+        <v>41.1613883972168</v>
       </c>
       <c r="G131">
         <v>15200</v>
@@ -4518,13 +4905,16 @@
         <v>-0.00568869559059848</v>
       </c>
       <c r="I131">
-        <v>0.2982798742581529</v>
+        <v>0.06316125450036394</v>
       </c>
       <c r="J131">
         <v>0.2982798742581529</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.2982798742581529</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4550,13 +4940,16 @@
         <v>0.01174343271303435</v>
       </c>
       <c r="I132">
-        <v>0.2467531548394777</v>
+        <v>0.06278670397091572</v>
       </c>
       <c r="J132">
         <v>0.2467531548394777</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.2467531548394777</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>66.05999755859375</v>
       </c>
       <c r="F133">
-        <v>40.93829345703125</v>
+        <v>40.93829727172852</v>
       </c>
       <c r="G133">
         <v>37600</v>
@@ -4582,13 +4975,16 @@
         <v>-0.01696427740207296</v>
       </c>
       <c r="I133">
-        <v>0.2125550314547979</v>
+        <v>0.06229661899394737</v>
       </c>
       <c r="J133">
         <v>0.2125550314547979</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.2125550314547979</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>67.55999755859375</v>
       </c>
       <c r="F134">
-        <v>41.86785888671875</v>
+        <v>41.86786270141602</v>
       </c>
       <c r="G134">
         <v>87350</v>
@@ -4614,13 +5010,16 @@
         <v>0.02270663117523641</v>
       </c>
       <c r="I134">
-        <v>0.2107526609735613</v>
+        <v>0.06230897648788416</v>
       </c>
       <c r="J134">
         <v>0.2107526609735613</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.2107526609735613</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>72.01999664306641</v>
       </c>
       <c r="F135">
-        <v>44.63180160522461</v>
+        <v>44.63177871704102</v>
       </c>
       <c r="G135">
         <v>10150</v>
@@ -4646,13 +5045,16 @@
         <v>0.06601538255836337</v>
       </c>
       <c r="I135">
-        <v>0.2252466508800413</v>
+        <v>0.06252302966571885</v>
       </c>
       <c r="J135">
         <v>0.2252466508800413</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.2252466508800413</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>71.59999847412109</v>
       </c>
       <c r="F136">
-        <v>44.37150573730469</v>
+        <v>44.37150955200195</v>
       </c>
       <c r="G136">
         <v>20600</v>
@@ -4678,13 +5080,16 @@
         <v>-0.005831688260509615</v>
       </c>
       <c r="I136">
-        <v>0.2323580095447537</v>
+        <v>0.06253804080710444</v>
       </c>
       <c r="J136">
         <v>0.2323580095447537</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.2323580095447537</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>69.81999969482422</v>
       </c>
       <c r="F137">
-        <v>43.26841735839844</v>
+        <v>43.26840972900391</v>
       </c>
       <c r="G137">
         <v>48550</v>
@@ -4710,13 +5115,16 @@
         <v>-0.02486031867640659</v>
       </c>
       <c r="I137">
-        <v>0.1935042682875934</v>
+        <v>0.06206966830634067</v>
       </c>
       <c r="J137">
         <v>0.1935042682875934</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.1935042682875934</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4742,13 +5150,16 @@
         <v>-0.03695218909097109</v>
       </c>
       <c r="I138">
-        <v>0.1427599879231509</v>
+        <v>0.06204650096123612</v>
       </c>
       <c r="J138">
         <v>0.1427599879231509</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.1427599879231509</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>67.63999938964844</v>
       </c>
       <c r="F139">
-        <v>41.91743087768555</v>
+        <v>41.91743469238281</v>
       </c>
       <c r="G139">
         <v>23350</v>
@@ -4774,13 +5185,16 @@
         <v>0.005948862858224935</v>
       </c>
       <c r="I139">
-        <v>0.1041462821240828</v>
+        <v>0.06170267720998996</v>
       </c>
       <c r="J139">
         <v>0.1041462821240828</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.1041462821240828</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>69.68000030517578</v>
       </c>
       <c r="F140">
-        <v>43.18165969848633</v>
+        <v>43.18164825439453</v>
       </c>
       <c r="G140">
         <v>54650</v>
@@ -4806,13 +5220,16 @@
         <v>0.03015968264245061</v>
       </c>
       <c r="I140">
-        <v>0.1430446415955446</v>
+        <v>0.06008191078230041</v>
       </c>
       <c r="J140">
         <v>0.1430446415955446</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.1430446415955446</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4829,7 +5246,7 @@
         <v>72.36000061035156</v>
       </c>
       <c r="F141">
-        <v>44.84248733520508</v>
+        <v>44.84249114990234</v>
       </c>
       <c r="G141">
         <v>80600</v>
@@ -4838,13 +5255,16 @@
         <v>0.0384615426727648</v>
       </c>
       <c r="I141">
-        <v>0.1467512259929489</v>
+        <v>0.05978577553619574</v>
       </c>
       <c r="J141">
         <v>0.1467512259929489</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.1467512259929489</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>70.76000213623047</v>
       </c>
       <c r="F142">
-        <v>43.85094833374023</v>
+        <v>43.85095596313477</v>
       </c>
       <c r="G142">
         <v>22900</v>
@@ -4870,13 +5290,16 @@
         <v>-0.02211164262887255</v>
       </c>
       <c r="I142">
-        <v>0.05928142071197784</v>
+        <v>0.05983453580602461</v>
       </c>
       <c r="J142">
         <v>0.05928142071197784</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.05928142071197784</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>65.87999725341797</v>
       </c>
       <c r="F143">
-        <v>42.70700454711914</v>
+        <v>42.70701217651367</v>
       </c>
       <c r="G143">
         <v>250300</v>
@@ -4902,13 +5325,16 @@
         <v>-0.0689655841645862</v>
       </c>
       <c r="I143">
-        <v>-0.00813009530885267</v>
+        <v>0.0597250749630524</v>
       </c>
       <c r="J143">
         <v>-0.00813009530885267</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>-0.00813009530885267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>60.79999923706055</v>
       </c>
       <c r="F144">
-        <v>39.41389083862305</v>
+        <v>39.41388320922852</v>
       </c>
       <c r="G144">
         <v>363350</v>
@@ -4934,13 +5360,16 @@
         <v>-0.07710986988685498</v>
       </c>
       <c r="I144">
-        <v>-0.09523806550335046</v>
+        <v>0.05983164891872896</v>
       </c>
       <c r="J144">
         <v>-0.09523806550335046</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>-0.09523806550335046</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4957,7 +5386,7 @@
         <v>59.63999938964844</v>
       </c>
       <c r="F145">
-        <v>38.66189575195312</v>
+        <v>38.66190719604492</v>
       </c>
       <c r="G145">
         <v>66550</v>
@@ -4966,13 +5395,16 @@
         <v>-0.01907894509816099</v>
       </c>
       <c r="I145">
-        <v>-0.09718435371195577</v>
+        <v>0.05977887155342212</v>
       </c>
       <c r="J145">
         <v>-0.09718435371195577</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>-0.09718435371195577</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4998,13 +5430,16 @@
         <v>-0.009054341399290289</v>
       </c>
       <c r="I146">
-        <v>-0.1252220158405931</v>
+        <v>0.05716402811621895</v>
       </c>
       <c r="J146">
         <v>-0.1252220158405931</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>-0.1252220158405931</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>62.56000137329102</v>
       </c>
       <c r="F147">
-        <v>40.55481338500977</v>
+        <v>40.55480194091797</v>
       </c>
       <c r="G147">
         <v>29350</v>
@@ -5030,13 +5465,16 @@
         <v>0.0585448898223746</v>
       </c>
       <c r="I147">
-        <v>-0.1313523425536862</v>
+        <v>0.0573588708042284</v>
       </c>
       <c r="J147">
         <v>-0.1313523425536862</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>-0.1313523425536862</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5053,7 +5491,7 @@
         <v>63.11999893188477</v>
       </c>
       <c r="F148">
-        <v>40.91782379150391</v>
+        <v>40.91782760620117</v>
       </c>
       <c r="G148">
         <v>51250</v>
@@ -5062,13 +5500,16 @@
         <v>0.008951367428083667</v>
       </c>
       <c r="I148">
-        <v>-0.1184357503205997</v>
+        <v>0.05714766000165265</v>
       </c>
       <c r="J148">
         <v>-0.1184357503205997</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>-0.1184357503205997</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5085,7 +5526,7 @@
         <v>53.81999969482422</v>
       </c>
       <c r="F149">
-        <v>36.31198120117188</v>
+        <v>36.31197357177734</v>
       </c>
       <c r="G149">
         <v>46700</v>
@@ -5094,13 +5535,16 @@
         <v>-0.1473383934479552</v>
       </c>
       <c r="I149">
-        <v>-0.2291606999417688</v>
+        <v>0.05846769958585726</v>
       </c>
       <c r="J149">
         <v>-0.2291606999417688</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.2291606999417688</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5126,13 +5570,16 @@
         <v>-0.032329949342918</v>
       </c>
       <c r="I150">
-        <v>-0.2254609832592425</v>
+        <v>0.05790865485590611</v>
       </c>
       <c r="J150">
         <v>-0.2254609832592425</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.2254609832592425</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>49.65999984741211</v>
       </c>
       <c r="F151">
-        <v>33.50525665283203</v>
+        <v>33.50525283813477</v>
       </c>
       <c r="G151">
         <v>16300</v>
@@ -5158,13 +5605,16 @@
         <v>-0.04646701034099354</v>
       </c>
       <c r="I151">
-        <v>-0.2658190376179685</v>
+        <v>0.05446324121433489</v>
       </c>
       <c r="J151">
         <v>-0.2658190376179685</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.2658190376179685</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>43.08000183105469</v>
       </c>
       <c r="F152">
-        <v>29.06577682495117</v>
+        <v>29.0657787322998</v>
       </c>
       <c r="G152">
         <v>79950</v>
@@ -5190,13 +5640,16 @@
         <v>-0.1325009673092119</v>
       </c>
       <c r="I152">
-        <v>-0.3817450969807942</v>
+        <v>0.05575955907946308</v>
       </c>
       <c r="J152">
         <v>-0.3817450969807942</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.3817450969807942</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>32.93999862670898</v>
       </c>
       <c r="F153">
-        <v>22.22439002990723</v>
+        <v>22.22438621520996</v>
       </c>
       <c r="G153">
         <v>28300</v>
@@ -5222,13 +5675,16 @@
         <v>-0.2353761089451991</v>
       </c>
       <c r="I153">
-        <v>-0.5447761422213599</v>
+        <v>0.05940176821043675</v>
       </c>
       <c r="J153">
         <v>-0.5447761422213599</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.5447761422213599</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>31.04000091552734</v>
       </c>
       <c r="F154">
-        <v>20.94247055053711</v>
+        <v>20.94247245788574</v>
       </c>
       <c r="G154">
         <v>10000</v>
@@ -5254,13 +5710,16 @@
         <v>-0.05768056437139779</v>
       </c>
       <c r="I154">
-        <v>-0.5613340873595838</v>
+        <v>0.05882044384510154</v>
       </c>
       <c r="J154">
         <v>-0.5613340873595838</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.5613340873595838</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5277,7 +5736,7 @@
         <v>32.77999877929688</v>
       </c>
       <c r="F155">
-        <v>22.71614646911621</v>
+        <v>22.71614074707031</v>
       </c>
       <c r="G155">
         <v>227250</v>
@@ -5286,13 +5745,16 @@
         <v>0.05605663055567511</v>
       </c>
       <c r="I155">
-        <v>-0.5024286559514665</v>
+        <v>0.05882237375936458</v>
       </c>
       <c r="J155">
         <v>-0.5024286559514665</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.5024286559514665</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>27.31999969482422</v>
       </c>
       <c r="F156">
-        <v>18.93243217468262</v>
+        <v>18.93242835998535</v>
       </c>
       <c r="G156">
         <v>80250</v>
@@ -5318,13 +5780,16 @@
         <v>-0.166564956918823</v>
       </c>
       <c r="I156">
-        <v>-0.5506578941176803</v>
+        <v>0.06058947444349288</v>
       </c>
       <c r="J156">
         <v>-0.5506578941176803</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.5506578941176803</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5350,13 +5815,16 @@
         <v>-0.1390922137448068</v>
       </c>
       <c r="I157">
-        <v>-0.6056337911055382</v>
+        <v>0.0617928920703653</v>
       </c>
       <c r="J157">
         <v>-0.6056337911055382</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.6056337911055382</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5373,7 +5841,7 @@
         <v>25.28000068664551</v>
       </c>
       <c r="F158">
-        <v>17.51873588562012</v>
+        <v>17.51873970031738</v>
       </c>
       <c r="G158">
         <v>45950</v>
@@ -5382,13 +5850,16 @@
         <v>0.0748299402477639</v>
       </c>
       <c r="I158">
-        <v>-0.5722504003495839</v>
+        <v>0.06212621558762251</v>
       </c>
       <c r="J158">
         <v>-0.5722504003495839</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.5722504003495839</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>30.04000091552734</v>
       </c>
       <c r="F159">
-        <v>20.81735801696777</v>
+        <v>20.81735610961914</v>
       </c>
       <c r="G159">
         <v>37050</v>
@@ -5414,13 +5885,16 @@
         <v>0.1882911431800858</v>
       </c>
       <c r="I159">
-        <v>-0.519820967773309</v>
+        <v>0.06454523770358023</v>
       </c>
       <c r="J159">
         <v>-0.519820967773309</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.519820967773309</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>34.2400016784668</v>
       </c>
       <c r="F160">
-        <v>23.7279109954834</v>
+        <v>23.72790336608887</v>
       </c>
       <c r="G160">
         <v>86300</v>
@@ -5446,13 +5920,16 @@
         <v>0.1398136030271731</v>
       </c>
       <c r="I160">
-        <v>-0.4575411556103398</v>
+        <v>0.06570378653490923</v>
       </c>
       <c r="J160">
         <v>-0.4575411556103398</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.4575411556103398</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5478,13 +5955,16 @@
         <v>-0.05140192902903151</v>
       </c>
       <c r="I161">
-        <v>-0.3965068798512112</v>
+        <v>0.06586127266786665</v>
       </c>
       <c r="J161">
         <v>-0.3965068798512112</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.3965068798512112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>35.20000076293945</v>
       </c>
       <c r="F162">
-        <v>24.72938919067383</v>
+        <v>24.72939300537109</v>
       </c>
       <c r="G162">
         <v>37550</v>
@@ -5510,13 +5990,16 @@
         <v>0.08374388112801823</v>
       </c>
       <c r="I162">
-        <v>-0.3241167525852484</v>
+        <v>0.06610146383691275</v>
       </c>
       <c r="J162">
         <v>-0.3241167525852484</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.3241167525852484</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>38.20000076293945</v>
       </c>
       <c r="F163">
-        <v>26.83701705932617</v>
+        <v>26.83701133728027</v>
       </c>
       <c r="G163">
         <v>142200</v>
@@ -5542,13 +6025,16 @@
         <v>0.08522727088002147</v>
       </c>
       <c r="I163">
-        <v>-0.2307692130423932</v>
+        <v>0.06628456567267953</v>
       </c>
       <c r="J163">
         <v>-0.2307692130423932</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.2307692130423932</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>40.81999969482422</v>
       </c>
       <c r="F164">
-        <v>28.67766952514648</v>
+        <v>28.67766189575195</v>
       </c>
       <c r="G164">
         <v>30550</v>
@@ -5574,13 +6060,16 @@
         <v>0.06858635810360014</v>
       </c>
       <c r="I164">
-        <v>-0.05246058589072111</v>
+        <v>0.06654770891507676</v>
       </c>
       <c r="J164">
         <v>-0.05246058589072111</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>-0.05246058589072111</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5597,7 +6086,7 @@
         <v>38.38000106811523</v>
       </c>
       <c r="F165">
-        <v>26.96347045898438</v>
+        <v>26.96346473693848</v>
       </c>
       <c r="G165">
         <v>106050</v>
@@ -5606,13 +6095,16 @@
         <v>-0.05977458708845518</v>
       </c>
       <c r="I165">
-        <v>0.1651488363146225</v>
+        <v>0.06675538081151118</v>
       </c>
       <c r="J165">
         <v>0.1651488363146225</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.1651488363146225</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5638,13 +6130,16 @@
         <v>0.02866072025815902</v>
       </c>
       <c r="I166">
-        <v>0.2719071642322983</v>
+        <v>0.0668020636803236</v>
       </c>
       <c r="J166">
         <v>0.2719071642322983</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.2719071642322983</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>39.02000045776367</v>
       </c>
       <c r="F167">
-        <v>27.7255973815918</v>
+        <v>27.72559356689453</v>
       </c>
       <c r="G167">
         <v>11350</v>
@@ -5670,13 +6165,16 @@
         <v>-0.01165144604372503</v>
       </c>
       <c r="I167">
-        <v>0.1903600338877329</v>
+        <v>0.06527822109463069</v>
       </c>
       <c r="J167">
         <v>0.1903600338877329</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.1903600338877329</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>35.40000152587891</v>
       </c>
       <c r="F168">
-        <v>25.15341186523438</v>
+        <v>25.15341377258301</v>
       </c>
       <c r="G168">
         <v>136350</v>
@@ -5702,13 +6200,16 @@
         <v>-0.09277290849350839</v>
       </c>
       <c r="I168">
-        <v>0.2957540966805152</v>
+        <v>0.06555962728936381</v>
       </c>
       <c r="J168">
         <v>0.2957540966805152</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.2957540966805152</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>33.95999908447266</v>
       </c>
       <c r="F169">
-        <v>24.13021850585938</v>
+        <v>24.13022613525391</v>
       </c>
       <c r="G169">
         <v>32000</v>
@@ -5734,13 +6235,16 @@
         <v>-0.0406780333145903</v>
       </c>
       <c r="I169">
-        <v>0.4438774839931121</v>
+        <v>0.06419217416906645</v>
       </c>
       <c r="J169">
         <v>0.4438774839931121</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.4438774839931121</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5766,13 +6270,16 @@
         <v>0.07420496247645292</v>
       </c>
       <c r="I170">
-        <v>0.4430379173805705</v>
+        <v>0.06425487840169145</v>
       </c>
       <c r="J170">
         <v>0.4430379173805705</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.4430379173805705</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>33.52000045776367</v>
       </c>
       <c r="F171">
-        <v>23.81757926940918</v>
+        <v>23.81758117675781</v>
       </c>
       <c r="G171">
         <v>48950</v>
@@ -5798,13 +6305,16 @@
         <v>-0.08114032679867733</v>
       </c>
       <c r="I171">
-        <v>0.1158455205118705</v>
+        <v>0.06440771909307659</v>
       </c>
       <c r="J171">
         <v>0.1158455205118705</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.1158455205118705</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>28.55999946594238</v>
       </c>
       <c r="F172">
-        <v>20.29326057434082</v>
+        <v>20.29325485229492</v>
       </c>
       <c r="G172">
         <v>70600</v>
@@ -5830,13 +6340,16 @@
         <v>-0.1479713879500407</v>
       </c>
       <c r="I172">
-        <v>-0.1658879069534775</v>
+        <v>0.06559951068365669</v>
       </c>
       <c r="J172">
         <v>-0.1658879069534775</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>-0.1658879069534775</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>27.60000038146973</v>
       </c>
       <c r="F173">
-        <v>19.92200088500977</v>
+        <v>19.9220027923584</v>
       </c>
       <c r="G173">
         <v>30350</v>
@@ -5862,13 +6375,16 @@
         <v>-0.03361341395042561</v>
       </c>
       <c r="I173">
-        <v>-0.1502462816977799</v>
+        <v>0.06544109746022697</v>
       </c>
       <c r="J173">
         <v>-0.1502462816977799</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>-0.1502462816977799</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>32.61999893188477</v>
       </c>
       <c r="F174">
-        <v>23.54549217224121</v>
+        <v>23.54549789428711</v>
       </c>
       <c r="G174">
         <v>40150</v>
@@ -5894,13 +6410,16 @@
         <v>0.1818840029359348</v>
       </c>
       <c r="I174">
-        <v>-0.07329550497541637</v>
+        <v>0.06749865418365641</v>
       </c>
       <c r="J174">
         <v>-0.07329550497541637</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>-0.07329550497541637</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5917,7 +6436,7 @@
         <v>29.71999931335449</v>
       </c>
       <c r="F175">
-        <v>21.45224571228027</v>
+        <v>21.45224380493164</v>
       </c>
       <c r="G175">
         <v>55700</v>
@@ -5926,13 +6445,16 @@
         <v>-0.08890250501190655</v>
       </c>
       <c r="I175">
-        <v>-0.2219895623094337</v>
+        <v>0.06730641721235127</v>
       </c>
       <c r="J175">
         <v>-0.2219895623094337</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>-0.2219895623094337</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>33.59999847412109</v>
       </c>
       <c r="F176">
-        <v>24.25287246704102</v>
+        <v>24.25287055969238</v>
       </c>
       <c r="G176">
         <v>879650</v>
@@ -5958,13 +6480,16 @@
         <v>0.1305517917365209</v>
       </c>
       <c r="I176">
-        <v>-0.1768741125595498</v>
+        <v>0.06821424172720028</v>
       </c>
       <c r="J176">
         <v>-0.1768741125595498</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>-0.1768741125595498</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5981,7 +6506,7 @@
         <v>35.81999969482422</v>
       </c>
       <c r="F177">
-        <v>25.85528755187988</v>
+        <v>25.85529327392578</v>
       </c>
       <c r="G177">
         <v>26750</v>
@@ -5990,13 +6515,16 @@
         <v>0.06607146790238638</v>
       </c>
       <c r="I177">
-        <v>-0.06670144090792574</v>
+        <v>0.06844556816080755</v>
       </c>
       <c r="J177">
         <v>-0.06670144090792574</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>-0.06670144090792574</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6013,7 +6541,7 @@
         <v>30.21999931335449</v>
       </c>
       <c r="F178">
-        <v>21.81314849853516</v>
+        <v>21.81315040588379</v>
       </c>
       <c r="G178">
         <v>90150</v>
@@ -6022,13 +6550,16 @@
         <v>-0.156337253745954</v>
       </c>
       <c r="I178">
-        <v>-0.2345491473214264</v>
+        <v>0.06983122814693912</v>
       </c>
       <c r="J178">
         <v>-0.2345491473214264</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>-0.2345491473214264</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>32.7599983215332</v>
       </c>
       <c r="F179">
-        <v>23.78916358947754</v>
+        <v>23.78916549682617</v>
       </c>
       <c r="G179">
         <v>170200</v>
@@ -6054,13 +6585,16 @@
         <v>0.08405026690573947</v>
       </c>
       <c r="I179">
-        <v>-0.1604306013016701</v>
+        <v>0.07026027778313911</v>
       </c>
       <c r="J179">
         <v>-0.1604306013016701</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>-0.1604306013016701</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>36.2599983215332</v>
       </c>
       <c r="F180">
-        <v>26.33074188232422</v>
+        <v>26.33073806762695</v>
       </c>
       <c r="G180">
         <v>512850</v>
@@ -6086,13 +6620,16 @@
         <v>0.1068376123114587</v>
       </c>
       <c r="I180">
-        <v>0.02429369374534063</v>
+        <v>0.07093157237563245</v>
       </c>
       <c r="J180">
         <v>0.02429369374534063</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.02429369374534063</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>37.02000045776367</v>
       </c>
       <c r="F181">
-        <v>26.88262939453125</v>
+        <v>26.88262748718262</v>
       </c>
       <c r="G181">
         <v>133900</v>
@@ -6118,13 +6655,16 @@
         <v>0.02095979512991697</v>
       </c>
       <c r="I181">
-        <v>0.09010604993479299</v>
+        <v>0.07040049748906367</v>
       </c>
       <c r="J181">
         <v>0.09010604993479299</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.09010604993479299</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>37.15999984741211</v>
       </c>
       <c r="F182">
-        <v>26.98429107666016</v>
+        <v>26.98429298400879</v>
       </c>
       <c r="G182">
         <v>128850</v>
@@ -6150,13 +6690,16 @@
         <v>0.003781723066377696</v>
       </c>
       <c r="I182">
-        <v>0.01864035947666287</v>
+        <v>0.07014580433510864</v>
       </c>
       <c r="J182">
         <v>0.01864035947666287</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.01864035947666287</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>40.29999923706055</v>
       </c>
       <c r="F183">
-        <v>29.26445388793945</v>
+        <v>29.26445198059082</v>
       </c>
       <c r="G183">
         <v>275000</v>
@@ -6182,13 +6725,16 @@
         <v>0.08449944570888124</v>
       </c>
       <c r="I183">
-        <v>0.2022672639232181</v>
+        <v>0.07043001412453721</v>
       </c>
       <c r="J183">
         <v>0.2022672639232181</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.2022672639232181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>37.27999877929688</v>
       </c>
       <c r="F184">
-        <v>27.07143020629883</v>
+        <v>27.07143592834473</v>
       </c>
       <c r="G184">
         <v>261950</v>
@@ -6214,13 +6760,16 @@
         <v>-0.07493797803813429</v>
       </c>
       <c r="I184">
-        <v>0.3053221105187007</v>
+        <v>0.07040602060293376</v>
       </c>
       <c r="J184">
         <v>0.3053221105187007</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.3053221105187007</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6237,7 +6786,7 @@
         <v>35.22000122070312</v>
       </c>
       <c r="F185">
-        <v>26.1524715423584</v>
+        <v>26.1524658203125</v>
       </c>
       <c r="G185">
         <v>158350</v>
@@ -6246,13 +6795,16 @@
         <v>-0.05525744705060864</v>
       </c>
       <c r="I185">
-        <v>0.2760869831128467</v>
+        <v>0.07048536481487033</v>
       </c>
       <c r="J185">
         <v>0.2760869831128467</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.2760869831128467</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6269,7 +6821,7 @@
         <v>31.57999992370605</v>
       </c>
       <c r="F186">
-        <v>23.4496021270752</v>
+        <v>23.44959831237793</v>
       </c>
       <c r="G186">
         <v>514450</v>
@@ -6278,13 +6830,16 @@
         <v>-0.103350402351985</v>
       </c>
       <c r="I186">
-        <v>-0.0318822514479653</v>
+        <v>0.07111008272576154</v>
       </c>
       <c r="J186">
         <v>-0.0318822514479653</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>-0.0318822514479653</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>27.21999931335449</v>
       </c>
       <c r="F187">
-        <v>20.21209907531738</v>
+        <v>20.21210479736328</v>
       </c>
       <c r="G187">
         <v>188050</v>
@@ -6310,13 +6865,16 @@
         <v>-0.1380620842585454</v>
       </c>
       <c r="I187">
-        <v>-0.08411844070523378</v>
+        <v>0.07217825476999204</v>
       </c>
       <c r="J187">
         <v>-0.08411844070523378</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>-0.08411844070523378</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6333,7 +6891,7 @@
         <v>23.76000022888184</v>
       </c>
       <c r="F188">
-        <v>17.64289093017578</v>
+        <v>17.64289283752441</v>
       </c>
       <c r="G188">
         <v>102450</v>
@@ -6342,13 +6900,16 @@
         <v>-0.1271123869123367</v>
       </c>
       <c r="I188">
-        <v>-0.2928571039316588</v>
+        <v>0.07181063290712686</v>
       </c>
       <c r="J188">
         <v>-0.2928571039316588</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.2928571039316588</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6374,13 +6935,16 @@
         <v>0.1363636254169616</v>
       </c>
       <c r="I189">
-        <v>-0.2462311493570073</v>
+        <v>0.07280460938890154</v>
       </c>
       <c r="J189">
         <v>-0.2462311493570073</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.2462311493570073</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6397,7 +6961,7 @@
         <v>25.5</v>
       </c>
       <c r="F190">
-        <v>18.9349250793457</v>
+        <v>18.93492126464844</v>
       </c>
       <c r="G190">
         <v>228050</v>
@@ -6406,13 +6970,16 @@
         <v>-0.05555555555555558</v>
       </c>
       <c r="I190">
-        <v>-0.1561879358239655</v>
+        <v>0.07297628721623027</v>
       </c>
       <c r="J190">
         <v>-0.1561879358239655</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.1561879358239655</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6429,7 +6996,7 @@
         <v>23.97999954223633</v>
       </c>
       <c r="F191">
-        <v>18.05936241149902</v>
+        <v>18.05936622619629</v>
       </c>
       <c r="G191">
         <v>69700</v>
@@ -6438,13 +7005,16 @@
         <v>-0.05960786108877147</v>
       </c>
       <c r="I191">
-        <v>-0.2680097444793141</v>
+        <v>0.07317616129897508</v>
       </c>
       <c r="J191">
         <v>-0.2680097444793141</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.2680097444793141</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>25.89999961853027</v>
       </c>
       <c r="F192">
-        <v>19.50531768798828</v>
+        <v>19.50531578063965</v>
       </c>
       <c r="G192">
         <v>528450</v>
@@ -6470,13 +7040,16 @@
         <v>0.08006672697854822</v>
       </c>
       <c r="I192">
-        <v>-0.285714263170569</v>
+        <v>0.07348988240553909</v>
       </c>
       <c r="J192">
         <v>-0.285714263170569</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.285714263170569</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6502,13 +7075,16 @@
         <v>0.03243243880154001</v>
       </c>
       <c r="I193">
-        <v>-0.2776877514729914</v>
+        <v>0.07354528865784572</v>
       </c>
       <c r="J193">
         <v>-0.2776877514729914</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.2776877514729914</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6525,7 +7101,7 @@
         <v>26.15999984741211</v>
       </c>
       <c r="F194">
-        <v>19.70112228393555</v>
+        <v>19.70112037658691</v>
       </c>
       <c r="G194">
         <v>462550</v>
@@ -6534,13 +7110,16 @@
         <v>-0.02169034886576593</v>
       </c>
       <c r="I194">
-        <v>-0.2960172240357547</v>
+        <v>0.0733723526836466</v>
       </c>
       <c r="J194">
         <v>-0.2960172240357547</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.2960172240357547</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>24</v>
       </c>
       <c r="F195">
-        <v>18.07442283630371</v>
+        <v>18.07442474365234</v>
       </c>
       <c r="G195">
         <v>97000</v>
@@ -6566,13 +7145,16 @@
         <v>-0.08256880198819228</v>
       </c>
       <c r="I195">
-        <v>-0.4044664899663521</v>
+        <v>0.07376437963226312</v>
       </c>
       <c r="J195">
         <v>-0.4044664899663521</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.4044664899663521</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>20.23999977111816</v>
       </c>
       <c r="F196">
-        <v>15.24276638031006</v>
+        <v>15.24276542663574</v>
       </c>
       <c r="G196">
         <v>383850</v>
@@ -6598,13 +7180,16 @@
         <v>-0.1566666762034098</v>
       </c>
       <c r="I196">
-        <v>-0.4570815334264905</v>
+        <v>0.07513541259277699</v>
       </c>
       <c r="J196">
         <v>-0.4570815334264905</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.4570815334264905</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>22.6200008392334</v>
       </c>
       <c r="F197">
-        <v>17.43717956542969</v>
+        <v>17.43717575073242</v>
       </c>
       <c r="G197">
         <v>642100</v>
@@ -6630,13 +7215,16 @@
         <v>0.1175889869085582</v>
       </c>
       <c r="I197">
-        <v>-0.3577512761147538</v>
+        <v>0.0759128076851925</v>
       </c>
       <c r="J197">
         <v>-0.3577512761147538</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.3577512761147538</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6653,7 +7241,7 @@
         <v>21.07999992370605</v>
       </c>
       <c r="F198">
-        <v>16.25002861022949</v>
+        <v>16.25003051757812</v>
       </c>
       <c r="G198">
         <v>216250</v>
@@ -6662,13 +7250,16 @@
         <v>-0.06808138189174073</v>
       </c>
       <c r="I198">
-        <v>-0.332488917839357</v>
+        <v>0.07572848118033017</v>
       </c>
       <c r="J198">
         <v>-0.332488917839357</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.332488917839357</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6685,7 +7276,7 @@
         <v>23.45999908447266</v>
       </c>
       <c r="F199">
-        <v>18.08470916748047</v>
+        <v>18.08471298217773</v>
       </c>
       <c r="G199">
         <v>380050</v>
@@ -6694,13 +7285,16 @@
         <v>0.1129031864032461</v>
       </c>
       <c r="I199">
-        <v>-0.1381337370951781</v>
+        <v>0.07642692225313244</v>
       </c>
       <c r="J199">
         <v>-0.1381337370951781</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>-0.1381337370951781</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>24.05999946594238</v>
       </c>
       <c r="F200">
-        <v>18.5472354888916</v>
+        <v>18.54723739624023</v>
       </c>
       <c r="G200">
         <v>306600</v>
@@ -6726,13 +7320,16 @@
         <v>0.02557546482884754</v>
       </c>
       <c r="I200">
-        <v>0.01262623039438693</v>
+        <v>0.07556323603769262</v>
       </c>
       <c r="J200">
         <v>0.01262623039438693</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0.01262623039438693</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6758,13 +7355,16 @@
         <v>0.03657527380085357</v>
       </c>
       <c r="I201">
-        <v>-0.0762962765163846</v>
+        <v>0.07543194085617425</v>
       </c>
       <c r="J201">
         <v>-0.0762962765163846</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>-0.0762962765163846</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6781,7 +7381,7 @@
         <v>25.5</v>
       </c>
       <c r="F202">
-        <v>19.65729522705078</v>
+        <v>19.65729904174805</v>
       </c>
       <c r="G202">
         <v>279950</v>
@@ -6790,13 +7390,16 @@
         <v>0.02245386743988464</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>0.07491132352986048</v>
       </c>
       <c r="J202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>26.89999961853027</v>
       </c>
       <c r="F203">
-        <v>20.83505058288574</v>
+        <v>20.83505249023438</v>
       </c>
       <c r="G203">
         <v>415250</v>
@@ -6822,13 +7425,16 @@
         <v>0.05490194582471664</v>
       </c>
       <c r="I203">
-        <v>0.1217681456228097</v>
+        <v>0.07492630445146596</v>
       </c>
       <c r="J203">
         <v>0.1217681456228097</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.1217681456228097</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6845,7 +7451,7 @@
         <v>28.39999961853027</v>
       </c>
       <c r="F204">
-        <v>21.99685859680176</v>
+        <v>21.99685478210449</v>
       </c>
       <c r="G204">
         <v>548100</v>
@@ -6854,13 +7460,16 @@
         <v>0.05576208257515036</v>
       </c>
       <c r="I204">
-        <v>0.09652509794677222</v>
+        <v>0.07508586977596525</v>
       </c>
       <c r="J204">
         <v>0.09652509794677222</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.09652509794677222</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="F205">
-        <v>19.27048873901367</v>
+        <v>19.27048683166504</v>
       </c>
       <c r="G205">
         <v>899800</v>
@@ -6886,13 +7495,16 @@
         <v>-0.1239436797550857</v>
       </c>
       <c r="I205">
-        <v>-0.06955873695857495</v>
+        <v>0.07593442097237114</v>
       </c>
       <c r="J205">
         <v>-0.06955873695857495</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>-0.06955873695857495</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6918,13 +7530,16 @@
         <v>-0.05144689800935809</v>
       </c>
       <c r="I206">
-        <v>-0.09785930737287951</v>
+        <v>0.07578594304399261</v>
       </c>
       <c r="J206">
         <v>-0.09785930737287951</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>-0.09785930737287951</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6950,13 +7565,16 @@
         <v>0.1144067293198354</v>
       </c>
       <c r="I207">
-        <v>0.09583330154418945</v>
+        <v>0.07552579118061203</v>
       </c>
       <c r="J207">
         <v>0.09583330154418945</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.09583330154418945</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>26.6200008392334</v>
       </c>
       <c r="F208">
-        <v>20.6181812286377</v>
+        <v>20.61818313598633</v>
       </c>
       <c r="G208">
         <v>889800</v>
@@ -6982,13 +7600,16 @@
         <v>0.01216736165231214</v>
       </c>
       <c r="I208">
-        <v>0.3152174476414418</v>
+        <v>0.07477760706358375</v>
       </c>
       <c r="J208">
         <v>0.3152174476414418</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.3152174476414418</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7014,13 +7635,16 @@
         <v>-0.1126972165822965</v>
       </c>
       <c r="I209">
-        <v>0.04420866325811734</v>
+        <v>0.07547678555395596</v>
       </c>
       <c r="J209">
         <v>0.04420866325811734</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.04420866325811734</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>26</v>
       </c>
       <c r="F210">
-        <v>20.55032348632812</v>
+        <v>20.55032157897949</v>
       </c>
       <c r="G210">
         <v>1131600</v>
@@ -7046,13 +7670,16 @@
         <v>0.1007620269349594</v>
       </c>
       <c r="I210">
-        <v>0.2333965889042073</v>
+        <v>0.0760346469418901</v>
       </c>
       <c r="J210">
         <v>0.2333965889042073</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.2333965889042073</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7069,7 +7696,7 @@
         <v>26.07999992370605</v>
       </c>
       <c r="F211">
-        <v>20.61355400085449</v>
+        <v>20.61355590820312</v>
       </c>
       <c r="G211">
         <v>273450</v>
@@ -7078,13 +7705,16 @@
         <v>0.003076920142540462</v>
       </c>
       <c r="I211">
-        <v>0.1116794945216977</v>
+        <v>0.07596507051552066</v>
       </c>
       <c r="J211">
         <v>0.1116794945216977</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.1116794945216977</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>28.23999977111816</v>
       </c>
       <c r="F212">
-        <v>22.32081413269043</v>
+        <v>22.32081031799316</v>
       </c>
       <c r="G212">
         <v>1193900</v>
@@ -7110,13 +7740,16 @@
         <v>0.08282208028109395</v>
       </c>
       <c r="I212">
-        <v>0.1737323523673677</v>
+        <v>0.07624656535809922</v>
       </c>
       <c r="J212">
         <v>0.1737323523673677</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.1737323523673677</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7133,7 +7766,7 @@
         <v>31.34000015258789</v>
       </c>
       <c r="F213">
-        <v>24.77104187011719</v>
+        <v>24.77103996276855</v>
       </c>
       <c r="G213">
         <v>585550</v>
@@ -7142,13 +7775,16 @@
         <v>0.1097733855026508</v>
       </c>
       <c r="I213">
-        <v>0.2566158573168653</v>
+        <v>0.07676301252018682</v>
       </c>
       <c r="J213">
         <v>0.2566158573168653</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.2566158573168653</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7165,7 +7801,7 @@
         <v>30.65999984741211</v>
       </c>
       <c r="F214">
-        <v>24.23357391357422</v>
+        <v>24.23357009887695</v>
       </c>
       <c r="G214">
         <v>727650</v>
@@ -7174,13 +7810,16 @@
         <v>-0.02169752079977671</v>
       </c>
       <c r="I214">
-        <v>0.2023529351926316</v>
+        <v>0.07653512129081667</v>
       </c>
       <c r="J214">
         <v>0.2023529351926316</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.2023529351926316</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7197,7 +7836,7 @@
         <v>31.18000030517578</v>
       </c>
       <c r="F215">
-        <v>24.80657768249512</v>
+        <v>24.80658340454102</v>
       </c>
       <c r="G215">
         <v>474350</v>
@@ -7206,13 +7845,16 @@
         <v>0.01696022375575978</v>
       </c>
       <c r="I215">
-        <v>0.1591078344736183</v>
+        <v>0.07653999325016295</v>
       </c>
       <c r="J215">
         <v>0.1591078344736183</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.1591078344736183</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7229,7 +7871,7 @@
         <v>31.07999992370605</v>
       </c>
       <c r="F216">
-        <v>24.72702217102051</v>
+        <v>24.72702026367188</v>
       </c>
       <c r="G216">
         <v>813650</v>
@@ -7238,13 +7880,16 @@
         <v>-0.003207196295412662</v>
       </c>
       <c r="I216">
-        <v>0.09436620919625471</v>
+        <v>0.07649461313514457</v>
       </c>
       <c r="J216">
         <v>0.09436620919625471</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>0.09436620919625471</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7261,7 +7906,7 @@
         <v>33.20000076293945</v>
       </c>
       <c r="F217">
-        <v>26.4136791229248</v>
+        <v>26.41368103027344</v>
       </c>
       <c r="G217">
         <v>1690250</v>
@@ -7270,13 +7915,16 @@
         <v>0.06821109538087167</v>
       </c>
       <c r="I217">
-        <v>0.3344052203704535</v>
+        <v>0.07673765774675327</v>
       </c>
       <c r="J217">
         <v>0.3344052203704535</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.3344052203704535</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>35.41999816894531</v>
       </c>
       <c r="F218">
-        <v>28.17989349365234</v>
+        <v>28.17989540100098</v>
       </c>
       <c r="G218">
         <v>995050</v>
@@ -7302,13 +7950,16 @@
         <v>0.06686739021054477</v>
       </c>
       <c r="I218">
-        <v>0.5008473557804018</v>
+        <v>0.07688834169458894</v>
       </c>
       <c r="J218">
         <v>0.5008473557804018</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0.5008473557804018</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7325,7 +7976,7 @@
         <v>36.08000183105469</v>
       </c>
       <c r="F219">
-        <v>28.70499420166016</v>
+        <v>28.70498466491699</v>
       </c>
       <c r="G219">
         <v>3087350</v>
@@ -7334,13 +7985,16 @@
         <v>0.01863364472695084</v>
       </c>
       <c r="I219">
-        <v>0.3718632272890976</v>
+        <v>0.07689928315491916</v>
       </c>
       <c r="J219">
         <v>0.3718632272890976</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>0.3718632272890976</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>35.36000061035156</v>
       </c>
       <c r="F220">
-        <v>28.13216209411621</v>
+        <v>28.13215827941895</v>
       </c>
       <c r="G220">
         <v>646050</v>
@@ -7366,13 +8020,16 @@
         <v>-0.01995568692248262</v>
       </c>
       <c r="I220">
-        <v>0.3283245490449751</v>
+        <v>0.07692127722702959</v>
       </c>
       <c r="J220">
         <v>0.3283245490449751</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.3283245490449751</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>34.7599983215332</v>
       </c>
       <c r="F221">
-        <v>28.04345893859863</v>
+        <v>28.04346084594727</v>
       </c>
       <c r="G221">
         <v>626500</v>
@@ -7398,13 +8055,16 @@
         <v>-0.01696839022798857</v>
       </c>
       <c r="I221">
-        <v>0.4716340849487184</v>
+        <v>0.07685302457978278</v>
       </c>
       <c r="J221">
         <v>0.4716340849487184</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.4716340849487184</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>32.68000030517578</v>
       </c>
       <c r="F222">
-        <v>26.36537551879883</v>
+        <v>26.36537170410156</v>
       </c>
       <c r="G222">
         <v>1821400</v>
@@ -7430,13 +8090,16 @@
         <v>-0.05983884110457216</v>
       </c>
       <c r="I222">
-        <v>0.2569230886606069</v>
+        <v>0.07698638753105237</v>
       </c>
       <c r="J222">
         <v>0.2569230886606069</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.2569230886606069</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7453,7 +8116,7 @@
         <v>31.94000053405762</v>
       </c>
       <c r="F223">
-        <v>25.76836013793945</v>
+        <v>25.76836395263672</v>
       </c>
       <c r="G223">
         <v>860350</v>
@@ -7462,13 +8125,16 @@
         <v>-0.02264381163426621</v>
       </c>
       <c r="I223">
-        <v>0.2246932755941065</v>
+        <v>0.07701704480349325</v>
       </c>
       <c r="J223">
         <v>0.2246932755941065</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.2246932755941065</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7485,7 +8151,7 @@
         <v>31.3799991607666</v>
       </c>
       <c r="F224">
-        <v>25.31656455993652</v>
+        <v>25.31656646728516</v>
       </c>
       <c r="G224">
         <v>1163550</v>
@@ -7494,13 +8160,16 @@
         <v>-0.01753291684181046</v>
       </c>
       <c r="I224">
-        <v>0.111189780987881</v>
+        <v>0.07688825089787531</v>
       </c>
       <c r="J224">
         <v>0.111189780987881</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>0.111189780987881</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7526,13 +8195,16 @@
         <v>-0.0503505406616287</v>
       </c>
       <c r="I225">
-        <v>-0.04913851014771542</v>
+        <v>0.07681535000618396</v>
       </c>
       <c r="J225">
         <v>-0.04913851014771542</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>-0.04913851014771542</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7549,7 +8221,7 @@
         <v>29.76000022888184</v>
       </c>
       <c r="F226">
-        <v>24.00959205627441</v>
+        <v>24.00958824157715</v>
       </c>
       <c r="G226">
         <v>527600</v>
@@ -7558,13 +8230,16 @@
         <v>-0.001342248630965326</v>
       </c>
       <c r="I226">
-        <v>-0.02935419514055349</v>
+        <v>0.07649868163591891</v>
       </c>
       <c r="J226">
         <v>-0.02935419514055349</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>-0.02935419514055349</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7581,7 +8256,7 @@
         <v>27.20000076293945</v>
       </c>
       <c r="F227">
-        <v>22.09876251220703</v>
+        <v>22.0987663269043</v>
       </c>
       <c r="G227">
         <v>829350</v>
@@ -7590,13 +8265,16 @@
         <v>-0.08602148676927512</v>
       </c>
       <c r="I227">
-        <v>-0.1276459109455385</v>
+        <v>0.07676033131884599</v>
       </c>
       <c r="J227">
         <v>-0.1276459109455385</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.1276459109455385</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7622,13 +8300,16 @@
         <v>0.008088209822929349</v>
       </c>
       <c r="I228">
-        <v>-0.1177606131401715</v>
+        <v>0.07675171522487614</v>
       </c>
       <c r="J228">
         <v>-0.1177606131401715</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>-0.1177606131401715</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>29.76000022888184</v>
       </c>
       <c r="F229">
-        <v>24.17864799499512</v>
+        <v>24.17864608764648</v>
       </c>
       <c r="G229">
         <v>984400</v>
@@ -7654,13 +8335,16 @@
         <v>0.08533917381754308</v>
       </c>
       <c r="I229">
-        <v>-0.1036144715363267</v>
+        <v>0.0771171580573763</v>
       </c>
       <c r="J229">
         <v>-0.1036144715363267</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>-0.1036144715363267</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>29.60000038146973</v>
       </c>
       <c r="F230">
-        <v>24.04865646362305</v>
+        <v>24.04865455627441</v>
       </c>
       <c r="G230">
         <v>882000</v>
@@ -7686,13 +8370,16 @@
         <v>-0.005376338917391199</v>
       </c>
       <c r="I230">
-        <v>-0.1643138929515333</v>
+        <v>0.07711793328867909</v>
       </c>
       <c r="J230">
         <v>-0.1643138929515333</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>-0.1643138929515333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7709,7 +8396,7 @@
         <v>30.54000091552734</v>
       </c>
       <c r="F231">
-        <v>24.81236267089844</v>
+        <v>24.81236457824707</v>
       </c>
       <c r="G231">
         <v>1180350</v>
@@ -7718,13 +8405,16 @@
         <v>0.0317567743899787</v>
       </c>
       <c r="I231">
-        <v>-0.1535476894227585</v>
+        <v>0.07704984606539689</v>
       </c>
       <c r="J231">
         <v>-0.1535476894227585</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>-0.1535476894227585</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7741,7 +8431,7 @@
         <v>31.1200008392334</v>
       </c>
       <c r="F232">
-        <v>25.2835865020752</v>
+        <v>25.28358840942383</v>
       </c>
       <c r="G232">
         <v>820050</v>
@@ -7750,13 +8440,16 @@
         <v>0.01899148350749291</v>
       </c>
       <c r="I232">
-        <v>-0.1199094937197742</v>
+        <v>0.07706794271847024</v>
       </c>
       <c r="J232">
         <v>-0.1199094937197742</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>-0.1199094937197742</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7773,7 +8466,7 @@
         <v>29.78000068664551</v>
       </c>
       <c r="F233">
-        <v>24.62533760070801</v>
+        <v>24.62533569335938</v>
       </c>
       <c r="G233">
         <v>2279900</v>
@@ -7782,13 +8475,16 @@
         <v>-0.04305912970601644</v>
       </c>
       <c r="I233">
-        <v>-0.143268063157606</v>
+        <v>0.07715317582992885</v>
       </c>
       <c r="J233">
         <v>-0.143268063157606</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>-0.143268063157606</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7805,7 +8501,7 @@
         <v>30.95999908447266</v>
       </c>
       <c r="F234">
-        <v>25.60108375549316</v>
+        <v>25.6010856628418</v>
       </c>
       <c r="G234">
         <v>695850</v>
@@ -7814,13 +8510,16 @@
         <v>0.03962385394961743</v>
       </c>
       <c r="I234">
-        <v>-0.05263161580909514</v>
+        <v>0.0771612703300453</v>
       </c>
       <c r="J234">
         <v>-0.05263161580909514</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>-0.05263161580909514</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7846,13 +8545,16 @@
         <v>-0.04392760798513751</v>
       </c>
       <c r="I235">
-        <v>-0.07326237049034323</v>
+        <v>0.07724532339361909</v>
       </c>
       <c r="J235">
         <v>-0.07326237049034323</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.07326237049034323</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7869,7 +8571,7 @@
         <v>28.63999938964844</v>
       </c>
       <c r="F236">
-        <v>23.68265533447266</v>
+        <v>23.68265724182129</v>
       </c>
       <c r="G236">
         <v>1127100</v>
@@ -7878,13 +8580,16 @@
         <v>-0.03243246552193535</v>
       </c>
       <c r="I236">
-        <v>-0.08731675731030286</v>
+        <v>0.0772821374461161</v>
       </c>
       <c r="J236">
         <v>-0.08731675731030286</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.08731675731030286</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7901,7 +8606,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="F237">
-        <v>24.4930305480957</v>
+        <v>24.49302864074707</v>
       </c>
       <c r="G237">
         <v>534700</v>
@@ -7910,13 +8615,16 @@
         <v>0.03421792843819582</v>
       </c>
       <c r="I237">
-        <v>-0.006040214846827707</v>
+        <v>0.07715904847618019</v>
       </c>
       <c r="J237">
         <v>-0.006040214846827707</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>-0.006040214846827707</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7942,13 +8650,16 @@
         <v>-0.02835922109344646</v>
       </c>
       <c r="I238">
-        <v>-0.03293009189177509</v>
+        <v>0.07718978439066401</v>
       </c>
       <c r="J238">
         <v>-0.03293009189177509</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>-0.03293009189177509</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7974,13 +8685,16 @@
         <v>-0.04517029580935372</v>
       </c>
       <c r="I239">
-        <v>0.01029407247952641</v>
+        <v>0.07725544798096261</v>
       </c>
       <c r="J239">
         <v>0.01029407247952641</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>0.01029407247952641</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -8006,13 +8720,16 @@
         <v>-0.1215429478975923</v>
       </c>
       <c r="I240">
-        <v>-0.1196207395156517</v>
+        <v>0.07784592270604963</v>
       </c>
       <c r="J240">
         <v>-0.1196207395156517</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>-0.1196207395156517</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8029,7 +8746,7 @@
         <v>22.55999946594238</v>
       </c>
       <c r="F241">
-        <v>18.71238136291504</v>
+        <v>18.71237945556641</v>
       </c>
       <c r="G241">
         <v>794850</v>
@@ -8038,13 +8755,16 @@
         <v>-0.06545153122015324</v>
       </c>
       <c r="I241">
-        <v>-0.241935507646667</v>
+        <v>0.07803841120198629</v>
       </c>
       <c r="J241">
         <v>-0.241935507646667</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.241935507646667</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8061,7 +8781,7 @@
         <v>24.39999961853027</v>
       </c>
       <c r="F242">
-        <v>20.23856735229492</v>
+        <v>20.23856925964355</v>
       </c>
       <c r="G242">
         <v>1076700</v>
@@ -8070,13 +8790,16 @@
         <v>0.08156029238234863</v>
       </c>
       <c r="I242">
-        <v>-0.1756756991866383</v>
+        <v>0.07838885499040361</v>
       </c>
       <c r="J242">
         <v>-0.1756756991866383</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.1756756991866383</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8093,7 +8816,7 @@
         <v>25.42000007629395</v>
       </c>
       <c r="F243">
-        <v>21.08460235595703</v>
+        <v>21.08460426330566</v>
       </c>
       <c r="G243">
         <v>932750</v>
@@ -8102,13 +8825,16 @@
         <v>0.04180329810288375</v>
       </c>
       <c r="I243">
-        <v>-0.1676490073918189</v>
+        <v>0.07832488747366514</v>
       </c>
       <c r="J243">
         <v>-0.1676490073918189</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.1676490073918189</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>24.29999923706055</v>
       </c>
       <c r="F244">
-        <v>20.15562057495117</v>
+        <v>20.15561866760254</v>
       </c>
       <c r="G244">
         <v>785450</v>
@@ -8134,13 +8860,16 @@
         <v>-0.04405982831911492</v>
       </c>
       <c r="I244">
-        <v>-0.2191517165248525</v>
+        <v>0.07840788900364587</v>
       </c>
       <c r="J244">
         <v>-0.2191517165248525</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.2191517165248525</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8157,7 +8886,7 @@
         <v>21.70000076293945</v>
       </c>
       <c r="F245">
-        <v>18.50802612304688</v>
+        <v>18.50802421569824</v>
       </c>
       <c r="G245">
         <v>1618250</v>
@@ -8166,13 +8895,16 @@
         <v>-0.1069958253396062</v>
       </c>
       <c r="I245">
-        <v>-0.2713230267764714</v>
+        <v>0.07896071828055594</v>
       </c>
       <c r="J245">
         <v>-0.2713230267764714</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.2713230267764714</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8198,13 +8930,16 @@
         <v>0.03133633059536534</v>
       </c>
       <c r="I246">
-        <v>-0.277131788676608</v>
+        <v>0.0790246461207134</v>
       </c>
       <c r="J246">
         <v>-0.277131788676608</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.277131788676608</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>22.57999992370605</v>
       </c>
       <c r="F247">
-        <v>19.25857925415039</v>
+        <v>19.25857543945312</v>
       </c>
       <c r="G247">
         <v>922450</v>
@@ -8230,13 +8965,16 @@
         <v>0.008936584916860335</v>
       </c>
       <c r="I247">
-        <v>-0.2371621745707257</v>
+        <v>0.07892178101878793</v>
       </c>
       <c r="J247">
         <v>-0.2371621745707257</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>-0.2371621745707257</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>22.04000091552734</v>
       </c>
       <c r="F248">
-        <v>18.79800987243652</v>
+        <v>18.79801177978516</v>
       </c>
       <c r="G248">
         <v>773450</v>
@@ -8262,13 +9000,16 @@
         <v>-0.02391492515514948</v>
       </c>
       <c r="I248">
-        <v>-0.2304468790074967</v>
+        <v>0.07894039961005607</v>
       </c>
       <c r="J248">
         <v>-0.2304468790074967</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>-0.2304468790074967</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>22.55999946594238</v>
       </c>
       <c r="F249">
-        <v>19.24151992797852</v>
+        <v>19.24152183532715</v>
       </c>
       <c r="G249">
         <v>697000</v>
@@ -8294,13 +9035,16 @@
         <v>0.02359339967398522</v>
       </c>
       <c r="I249">
-        <v>-0.2383525041612976</v>
+        <v>0.07889788192442421</v>
       </c>
       <c r="J249">
         <v>-0.2383525041612976</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>-0.2383525041612976</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8326,13 +9070,16 @@
         <v>-0.03590423249633479</v>
       </c>
       <c r="I250">
-        <v>-0.2442668700111452</v>
+        <v>0.07872504076705113</v>
       </c>
       <c r="J250">
         <v>-0.2442668700111452</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>-0.2442668700111452</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8358,13 +9105,16 @@
         <v>0.1131034061826508</v>
       </c>
       <c r="I251">
-        <v>-0.1189956518280771</v>
+        <v>0.07947449992310737</v>
       </c>
       <c r="J251">
         <v>-0.1189956518280771</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>-0.1189956518280771</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8390,13 +9140,16 @@
         <v>-0.01941343788219851</v>
       </c>
       <c r="I252">
-        <v>-0.01656999290156569</v>
+        <v>0.07946962965788615</v>
       </c>
       <c r="J252">
         <v>-0.01656999290156569</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>-0.01656999290156569</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>23.64999961853027</v>
       </c>
       <c r="F253">
-        <v>20.3582592010498</v>
+        <v>20.35826301574707</v>
       </c>
       <c r="G253">
         <v>718900</v>
@@ -8422,13 +9175,16 @@
         <v>-0.003791076388188652</v>
       </c>
       <c r="I253">
-        <v>0.04831561074429125</v>
+        <v>0.07946267917685516</v>
       </c>
       <c r="J253">
         <v>0.04831561074429125</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.04831561074429125</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8454,13 +9210,16 @@
         <v>0.08837210090059933</v>
       </c>
       <c r="I254">
-        <v>0.05491803989907629</v>
+        <v>0.07988238754491693</v>
       </c>
       <c r="J254">
         <v>0.05491803989907629</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.05491803989907629</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8486,13 +9245,16 @@
         <v>0.02758356636109816</v>
       </c>
       <c r="I255">
-        <v>0.04051930305090989</v>
+        <v>0.07967291010481446</v>
       </c>
       <c r="J255">
         <v>0.04051930305090989</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.04051930305090989</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8518,13 +9280,16 @@
         <v>0.05368620171397454</v>
       </c>
       <c r="I256">
-        <v>0.1469136507925544</v>
+        <v>0.07985340892072611</v>
       </c>
       <c r="J256">
         <v>0.1469136507925544</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.1469136507925544</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8541,7 +9306,7 @@
         <v>27.79999923706055</v>
       </c>
       <c r="F257">
-        <v>24.36100196838379</v>
+        <v>24.36099624633789</v>
       </c>
       <c r="G257">
         <v>1797800</v>
@@ -8550,13 +9315,16 @@
         <v>-0.002511718696265985</v>
       </c>
       <c r="I257">
-        <v>0.2811059105831477</v>
+        <v>0.07983184251890187</v>
       </c>
       <c r="J257">
         <v>0.2811059105831477</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.2811059105831477</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8573,7 +9341,7 @@
         <v>29.76000022888184</v>
       </c>
       <c r="F258">
-        <v>26.07853889465332</v>
+        <v>26.07853698730469</v>
       </c>
       <c r="G258">
         <v>1161800</v>
@@ -8582,13 +9350,16 @@
         <v>0.07050363473421917</v>
       </c>
       <c r="I258">
-        <v>0.3297587732287672</v>
+        <v>0.08006622928426682</v>
       </c>
       <c r="J258">
         <v>0.3297587732287672</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.3297587732287672</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8605,7 +9376,7 @@
         <v>30.29000091552734</v>
       </c>
       <c r="F259">
-        <v>26.54297637939453</v>
+        <v>26.5429744720459</v>
       </c>
       <c r="G259">
         <v>744700</v>
@@ -8614,13 +9385,16 @@
         <v>0.01780916272074307</v>
       </c>
       <c r="I259">
-        <v>0.3414526580102772</v>
+        <v>0.08008534500335718</v>
       </c>
       <c r="J259">
         <v>0.3414526580102772</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.3414526580102772</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8646,13 +9420,16 @@
         <v>0.03532517868877694</v>
       </c>
       <c r="I260">
-        <v>0.4228674821995224</v>
+        <v>0.08010493690264772</v>
       </c>
       <c r="J260">
         <v>0.4228674821995224</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.4228674821995224</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>30.95999908447266</v>
       </c>
       <c r="F261">
-        <v>27.13008880615234</v>
+        <v>27.13009262084961</v>
       </c>
       <c r="G261">
         <v>423800</v>
@@ -8678,13 +9455,16 @@
         <v>-0.01275515044941899</v>
       </c>
       <c r="I261">
-        <v>0.3723404174371236</v>
+        <v>0.08001648618140571</v>
       </c>
       <c r="J261">
         <v>0.3723404174371236</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.3723404174371236</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8701,7 +9481,7 @@
         <v>31.01000022888184</v>
       </c>
       <c r="F262">
-        <v>27.17390823364258</v>
+        <v>27.17390632629395</v>
       </c>
       <c r="G262">
         <v>655700</v>
@@ -8710,13 +9490,16 @@
         <v>0.001615024091982553</v>
       </c>
       <c r="I262">
-        <v>0.4257471369600845</v>
+        <v>0.08000020435559729</v>
       </c>
       <c r="J262">
         <v>0.4257471369600845</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.4257471369600845</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8733,7 +9516,7 @@
         <v>30.44000053405762</v>
       </c>
       <c r="F263">
-        <v>26.82139587402344</v>
+        <v>26.82139778137207</v>
       </c>
       <c r="G263">
         <v>462300</v>
@@ -8742,13 +9525,16 @@
         <v>-0.018381157388491</v>
       </c>
       <c r="I263">
-        <v>0.2573317507302444</v>
+        <v>0.07978595314850899</v>
       </c>
       <c r="J263">
         <v>0.2573317507302444</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.2573317507302444</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>33.77999877929688</v>
       </c>
       <c r="F264">
-        <v>29.76434707641602</v>
+        <v>29.76434516906738</v>
       </c>
       <c r="G264">
         <v>864300</v>
@@ -8774,13 +9560,16 @@
         <v>0.1097239877345706</v>
       </c>
       <c r="I264">
-        <v>0.4229148738406168</v>
+        <v>0.08015353773583768</v>
       </c>
       <c r="J264">
         <v>0.4229148738406168</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.4229148738406168</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8806,13 +9595,16 @@
         <v>-0.06127885641289255</v>
       </c>
       <c r="I265">
-        <v>0.3408033655792198</v>
+        <v>0.08032309846666341</v>
       </c>
       <c r="J265">
         <v>0.3408033655792198</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.3408033655792198</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8829,7 +9621,7 @@
         <v>32.15000152587891</v>
       </c>
       <c r="F266">
-        <v>28.32812118530273</v>
+        <v>28.32811737060547</v>
       </c>
       <c r="G266">
         <v>884800</v>
@@ -8838,13 +9630,16 @@
         <v>0.01387582636739038</v>
       </c>
       <c r="I266">
-        <v>0.2490288194156534</v>
+        <v>0.08033342354065444</v>
       </c>
       <c r="J266">
         <v>0.2490288194156534</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.2490288194156534</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8861,7 +9656,7 @@
         <v>33.56999969482422</v>
       </c>
       <c r="F267">
-        <v>29.57931327819824</v>
+        <v>29.57931137084961</v>
       </c>
       <c r="G267">
         <v>599700</v>
@@ -8870,13 +9665,16 @@
         <v>0.04416790362520806</v>
       </c>
       <c r="I267">
-        <v>0.2691870974106354</v>
+        <v>0.08025335360315236</v>
       </c>
       <c r="J267">
         <v>0.2691870974106354</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.2691870974106354</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8902,13 +9700,16 @@
         <v>-0.09770624989914967</v>
       </c>
       <c r="I268">
-        <v>0.08683171881671581</v>
+        <v>0.0807212226360632</v>
       </c>
       <c r="J268">
         <v>0.08683171881671581</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>0.08683171881671581</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8925,7 +9726,7 @@
         <v>28.88999938964844</v>
       </c>
       <c r="F269">
-        <v>26.16993141174316</v>
+        <v>26.1699333190918</v>
       </c>
       <c r="G269">
         <v>1068900</v>
@@ -8934,13 +9735,16 @@
         <v>-0.04621992352470461</v>
       </c>
       <c r="I269">
-        <v>0.03920863965833488</v>
+        <v>0.07972136627559299</v>
       </c>
       <c r="J269">
         <v>0.03920863965833488</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>0.03920863965833488</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>29.8700008392334</v>
       </c>
       <c r="F270">
-        <v>27.05766296386719</v>
+        <v>27.05766487121582</v>
       </c>
       <c r="G270">
         <v>1113800</v>
@@ -8966,13 +9770,16 @@
         <v>0.03392182313219805</v>
       </c>
       <c r="I270">
-        <v>0.003696257039837336</v>
+        <v>0.07973871051941996</v>
       </c>
       <c r="J270">
         <v>0.003696257039837336</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>0.003696257039837336</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8989,7 +9796,7 @@
         <v>27.10000038146973</v>
       </c>
       <c r="F271">
-        <v>24.5484619140625</v>
+        <v>24.54846382141113</v>
       </c>
       <c r="G271">
         <v>665500</v>
@@ -8998,13 +9805,16 @@
         <v>-0.09273519852484757</v>
       </c>
       <c r="I271">
-        <v>-0.1053153000210822</v>
+        <v>0.08006957676039085</v>
       </c>
       <c r="J271">
         <v>-0.1053153000210822</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>-0.1053153000210822</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9030,13 +9840,16 @@
         <v>0.0206641866442665</v>
       </c>
       <c r="I272">
-        <v>-0.1179847159096715</v>
+        <v>0.07918444238566516</v>
       </c>
       <c r="J272">
         <v>-0.1179847159096715</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>-0.1179847159096715</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9062,13 +9875,16 @@
         <v>-0.09436010935465555</v>
       </c>
       <c r="I273">
-        <v>-0.190891473584576</v>
+        <v>0.07667645085419693</v>
       </c>
       <c r="J273">
         <v>-0.190891473584576</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.190891473584576</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9085,7 +9901,7 @@
         <v>25.38999938964844</v>
       </c>
       <c r="F274">
-        <v>22.99946594238281</v>
+        <v>22.99946403503418</v>
       </c>
       <c r="G274">
         <v>391500</v>
@@ -9094,13 +9910,16 @@
         <v>0.01357286079613429</v>
       </c>
       <c r="I274">
-        <v>-0.1812318864157598</v>
+        <v>0.07649659478978822</v>
       </c>
       <c r="J274">
         <v>-0.1812318864157598</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.1812318864157598</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9126,13 +9945,16 @@
         <v>-0.04647500329034548</v>
       </c>
       <c r="I275">
-        <v>-0.2046649586163627</v>
+        <v>0.07645186404516384</v>
       </c>
       <c r="J275">
         <v>-0.2046649586163627</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.2046649586163627</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9149,7 +9971,7 @@
         <v>26.17000007629395</v>
       </c>
       <c r="F276">
-        <v>24.01213073730469</v>
+        <v>24.01212882995605</v>
       </c>
       <c r="G276">
         <v>632900</v>
@@ -9158,13 +9980,16 @@
         <v>0.08095832573072492</v>
       </c>
       <c r="I276">
-        <v>-0.2252812012434694</v>
+        <v>0.0752389278447706</v>
       </c>
       <c r="J276">
         <v>-0.2252812012434694</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.2252812012434694</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9190,13 +10015,16 @@
         <v>0.03744744132133415</v>
       </c>
       <c r="I277">
-        <v>-0.1438032039608372</v>
+        <v>0.07416625664823429</v>
       </c>
       <c r="J277">
         <v>-0.1438032039608372</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.1438032039608372</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9213,7 +10041,7 @@
         <v>27.79000091552734</v>
       </c>
       <c r="F278">
-        <v>25.4985523223877</v>
+        <v>25.49855422973633</v>
       </c>
       <c r="G278">
         <v>470000</v>
@@ -9222,13 +10050,16 @@
         <v>0.02357279211747243</v>
       </c>
       <c r="I278">
-        <v>-0.1356143204796433</v>
+        <v>0.07390160763394114</v>
       </c>
       <c r="J278">
         <v>-0.1356143204796433</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>-0.1356143204796433</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>28.29000091552734</v>
       </c>
       <c r="F279">
-        <v>25.95732688903809</v>
+        <v>25.95732498168945</v>
       </c>
       <c r="G279">
         <v>670100</v>
@@ -9254,13 +10085,16 @@
         <v>0.01799208289052734</v>
       </c>
       <c r="I279">
-        <v>-0.1572832537174833</v>
+        <v>0.07193209234578776</v>
       </c>
       <c r="J279">
         <v>-0.1572832537174833</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>-0.1572832537174833</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9277,7 +10111,7 @@
         <v>25.94000053405762</v>
       </c>
       <c r="F280">
-        <v>23.80109786987305</v>
+        <v>23.80109596252441</v>
       </c>
       <c r="G280">
         <v>850300</v>
@@ -9286,13 +10120,16 @@
         <v>-0.08306823278255526</v>
       </c>
       <c r="I280">
-        <v>-0.1436117613070067</v>
+        <v>0.07121980557283004</v>
       </c>
       <c r="J280">
         <v>-0.1436117613070067</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.1436117613070067</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9309,7 +10146,7 @@
         <v>27.54999923706055</v>
       </c>
       <c r="F281">
-        <v>26.15960884094238</v>
+        <v>26.15961074829102</v>
       </c>
       <c r="G281">
         <v>601500</v>
@@ -9318,13 +10155,16 @@
         <v>0.06206625558427037</v>
       </c>
       <c r="I281">
-        <v>-0.04638283769116402</v>
+        <v>0.07128184355544283</v>
       </c>
       <c r="J281">
         <v>-0.04638283769116402</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>-0.04638283769116402</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9341,7 +10181,7 @@
         <v>27.03000068664551</v>
       </c>
       <c r="F282">
-        <v>25.66585350036621</v>
+        <v>25.66585159301758</v>
       </c>
       <c r="G282">
         <v>2007900</v>
@@ -9350,13 +10190,16 @@
         <v>-0.01887472104592769</v>
       </c>
       <c r="I282">
-        <v>-0.09507867669215564</v>
+        <v>0.07089739715147428</v>
       </c>
       <c r="J282">
         <v>-0.09507867669215564</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.09507867669215564</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9373,7 +10216,7 @@
         <v>26.90999984741211</v>
       </c>
       <c r="F283">
-        <v>25.55190849304199</v>
+        <v>25.55190658569336</v>
       </c>
       <c r="G283">
         <v>1561800</v>
@@ -9382,13 +10225,16 @@
         <v>-0.004439542589160461</v>
       </c>
       <c r="I283">
-        <v>-0.007011089718933494</v>
+        <v>0.07046614349354721</v>
       </c>
       <c r="J283">
         <v>-0.007011089718933494</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.007011089718933494</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9405,7 +10251,7 @@
         <v>27.56999969482422</v>
       </c>
       <c r="F284">
-        <v>26.17859840393066</v>
+        <v>26.1786003112793</v>
       </c>
       <c r="G284">
         <v>539700</v>
@@ -9414,13 +10260,16 @@
         <v>0.0245261929080085</v>
       </c>
       <c r="I284">
-        <v>-0.003253801629948705</v>
+        <v>0.0702178425321455</v>
       </c>
       <c r="J284">
         <v>-0.003253801629948705</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>-0.003253801629948705</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9446,13 +10295,16 @@
         <v>0.04715274424370897</v>
       </c>
       <c r="I285">
-        <v>0.1524950785835275</v>
+        <v>0.07014158336663734</v>
       </c>
       <c r="J285">
         <v>0.1524950785835275</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.1524950785835275</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9478,13 +10330,16 @@
         <v>0.0006927104202871792</v>
       </c>
       <c r="I286">
-        <v>0.1378495503795467</v>
+        <v>0.07009230185348379</v>
       </c>
       <c r="J286">
         <v>0.1378495503795467</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.1378495503795467</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9510,13 +10365,16 @@
         <v>0.02111459408926586</v>
       </c>
       <c r="I287">
-        <v>0.2185047961823403</v>
+        <v>0.07011090943034586</v>
       </c>
       <c r="J287">
         <v>0.2185047961823403</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.2185047961823403</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9533,7 +10391,7 @@
         <v>28.78000068664551</v>
       </c>
       <c r="F288">
-        <v>27.51946258544922</v>
+        <v>27.51946449279785</v>
       </c>
       <c r="G288">
         <v>1024600</v>
@@ -9542,13 +10400,16 @@
         <v>-0.02440675638489809</v>
       </c>
       <c r="I288">
-        <v>0.09973254118236818</v>
+        <v>0.06962572649433862</v>
       </c>
       <c r="J288">
         <v>0.09973254118236818</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>0.09973254118236818</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9565,7 +10426,7 @@
         <v>27.23999977111816</v>
       </c>
       <c r="F289">
-        <v>26.04691505432129</v>
+        <v>26.04691314697266</v>
       </c>
       <c r="G289">
         <v>2236900</v>
@@ -9574,13 +10435,16 @@
         <v>-0.05350941204952564</v>
       </c>
       <c r="I289">
-        <v>0.003314922793828057</v>
+        <v>0.06969962143605002</v>
       </c>
       <c r="J289">
         <v>0.003314922793828057</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>0.003314922793828057</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9597,7 +10461,7 @@
         <v>20.77000045776367</v>
       </c>
       <c r="F290">
-        <v>19.86029243469238</v>
+        <v>19.86029624938965</v>
       </c>
       <c r="G290">
         <v>1437600</v>
@@ -9606,13 +10470,16 @@
         <v>-0.2375183321482425</v>
       </c>
       <c r="I290">
-        <v>-0.2526088602552484</v>
+        <v>0.07267836672188423</v>
       </c>
       <c r="J290">
         <v>-0.2526088602552484</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.2526088602552484</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9629,7 +10496,7 @@
         <v>21.14999961853027</v>
       </c>
       <c r="F291">
-        <v>20.22364807128906</v>
+        <v>20.2236499786377</v>
       </c>
       <c r="G291">
         <v>434400</v>
@@ -9638,13 +10505,16 @@
         <v>0.01829557787152392</v>
       </c>
       <c r="I291">
-        <v>-0.2523860397996023</v>
+        <v>0.07233456436026431</v>
       </c>
       <c r="J291">
         <v>-0.2523860397996023</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.2523860397996023</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9661,7 +10531,7 @@
         <v>22.45999908447266</v>
       </c>
       <c r="F292">
-        <v>21.47627258300781</v>
+        <v>21.47627067565918</v>
       </c>
       <c r="G292">
         <v>581900</v>
@@ -9670,13 +10540,16 @@
         <v>0.06193851014515594</v>
       </c>
       <c r="I292">
-        <v>-0.1341557971448741</v>
+        <v>0.07128529552626021</v>
       </c>
       <c r="J292">
         <v>-0.1341557971448741</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>-0.1341557971448741</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9702,13 +10575,16 @@
         <v>0.07212826826664287</v>
       </c>
       <c r="I293">
-        <v>-0.1259527916315371</v>
+        <v>0.07151233872734794</v>
       </c>
       <c r="J293">
         <v>-0.1259527916315371</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>-0.1259527916315371</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9725,7 +10601,7 @@
         <v>24.72999954223633</v>
       </c>
       <c r="F294">
-        <v>23.8981990814209</v>
+        <v>23.89819717407227</v>
       </c>
       <c r="G294">
         <v>559400</v>
@@ -9734,13 +10610,16 @@
         <v>0.02699333972548601</v>
       </c>
       <c r="I294">
-        <v>-0.085090680206513</v>
+        <v>0.06960062211438107</v>
       </c>
       <c r="J294">
         <v>-0.085090680206513</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>-0.085090680206513</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9766,13 +10645,16 @@
         <v>0.0408410937152206</v>
       </c>
       <c r="I295">
-        <v>-0.04347826395125243</v>
+        <v>0.06921206155072324</v>
       </c>
       <c r="J295">
         <v>-0.04347826395125243</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>-0.04347826395125243</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9798,13 +10680,16 @@
         <v>-0.0528360770180567</v>
       </c>
       <c r="I296">
-        <v>-0.1157054976194463</v>
+        <v>0.06835222605343472</v>
       </c>
       <c r="J296">
         <v>-0.1157054976194463</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>-0.1157054976194463</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9830,13 +10715,16 @@
         <v>-0.06439703645891559</v>
       </c>
       <c r="I297">
-        <v>-0.2099065187783323</v>
+        <v>0.06832553376423804</v>
       </c>
       <c r="J297">
         <v>-0.2099065187783323</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>-0.2099065187783323</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9862,13 +10750,16 @@
         <v>0.2520824258933161</v>
       </c>
       <c r="I298">
-        <v>-0.01142263519134223</v>
+        <v>0.07067325827978524</v>
       </c>
       <c r="J298">
         <v>-0.01142263519134223</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>-0.01142263519134223</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9894,13 +10785,16 @@
         <v>0.03081236290514044</v>
       </c>
       <c r="I299">
-        <v>-0.002033880201436689</v>
+        <v>0.07032029109505945</v>
       </c>
       <c r="J299">
         <v>-0.002033880201436689</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>-0.002033880201436689</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9917,7 +10811,7 @@
         <v>28.35000038146973</v>
       </c>
       <c r="F300">
-        <v>27.62202262878418</v>
+        <v>27.62202072143555</v>
       </c>
       <c r="G300">
         <v>558800</v>
@@ -9926,13 +10820,16 @@
         <v>-0.03702446103310786</v>
       </c>
       <c r="I300">
-        <v>-0.01494094144950142</v>
+        <v>0.06973477422864534</v>
       </c>
       <c r="J300">
         <v>-0.01494094144950142</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>-0.01494094144950142</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9958,13 +10855,16 @@
         <v>0.05537917720277741</v>
       </c>
       <c r="I301">
-        <v>0.09838474037056755</v>
+        <v>0.0698906994234723</v>
       </c>
       <c r="J301">
         <v>0.09838474037056755</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.09838474037056755</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9990,13 +10890,16 @@
         <v>0.05314171619430152</v>
       </c>
       <c r="I302">
-        <v>0.5170919371406961</v>
+        <v>0.07005418155062622</v>
       </c>
       <c r="J302">
         <v>0.5170919371406961</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.5170919371406961</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10022,13 +10925,16 @@
         <v>0.003173607767164244</v>
       </c>
       <c r="I303">
-        <v>0.4945627035688884</v>
+        <v>0.06963258546211311</v>
       </c>
       <c r="J303">
         <v>0.4945627035688884</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.4945627035688884</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10054,13 +10960,16 @@
         <v>0.06010748732979887</v>
       </c>
       <c r="I304">
-        <v>0.4919857385345923</v>
+        <v>0.06949572814665356</v>
       </c>
       <c r="J304">
         <v>0.4919857385345923</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.4919857385345923</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10086,13 +10995,16 @@
         <v>-0.03342282864768353</v>
       </c>
       <c r="I305">
-        <v>0.3450996466890115</v>
+        <v>0.06937425687465835</v>
       </c>
       <c r="J305">
         <v>0.3450996466890115</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.3450996466890115</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10118,13 +11030,16 @@
         <v>0.003087443368409604</v>
       </c>
       <c r="I306">
-        <v>0.3137890125301932</v>
+        <v>0.06869673245201623</v>
       </c>
       <c r="J306">
         <v>0.3137890125301932</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.3137890125301932</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10150,13 +11065,16 @@
         <v>0.0141581736136851</v>
       </c>
       <c r="I307">
-        <v>0.2801088211318226</v>
+        <v>0.06747191533591508</v>
       </c>
       <c r="J307">
         <v>0.2801088211318226</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.2801088211318226</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10182,13 +11100,16 @@
         <v>-0.03945375157233255</v>
       </c>
       <c r="I308">
-        <v>0.298195271042621</v>
+        <v>0.0665095226731756</v>
       </c>
       <c r="J308">
         <v>0.298195271042621</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.298195271042621</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10214,13 +11135,16 @@
         <v>0.05781990349960808</v>
       </c>
       <c r="I309">
-        <v>0.4677773049589644</v>
+        <v>0.06558197705658828</v>
       </c>
       <c r="J309">
         <v>0.4677773049589644</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.4677773049589644</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10246,42 +11170,83 @@
         <v>-0.06033454257415272</v>
       </c>
       <c r="I310">
-        <v>0.1015406047884737</v>
+        <v>0.06561985578882649</v>
       </c>
       <c r="J310">
         <v>0.1015406047884737</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.1015406047884737</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>32.86000061035156</v>
+        <v>32.7400016784668</v>
       </c>
       <c r="C311">
-        <v>32.93000030517578</v>
+        <v>32.93999862670898</v>
       </c>
       <c r="D311">
-        <v>32.78340148925781</v>
+        <v>32.70999908447266</v>
       </c>
       <c r="E311">
-        <v>32.80500030517578</v>
+        <v>32.81000137329102</v>
       </c>
       <c r="F311">
-        <v>32.80500030517578</v>
+        <v>32.81000137329102</v>
       </c>
       <c r="G311">
-        <v>365513</v>
+        <v>656400</v>
       </c>
       <c r="H311">
-        <v>0.04275274188952416</v>
+        <v>0.04291170782279718</v>
       </c>
       <c r="I311">
-        <v>0.1143002618911426</v>
+        <v>0.06545309926952425</v>
       </c>
       <c r="J311">
-        <v>0.1143002618911426</v>
+        <v>0.1144701351256709</v>
+      </c>
+      <c r="K311">
+        <v>0.1144701351256709</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>33.29000091552734</v>
+      </c>
+      <c r="C312">
+        <v>33.34000015258789</v>
+      </c>
+      <c r="D312">
+        <v>33.16999816894531</v>
+      </c>
+      <c r="E312">
+        <v>33.29000091552734</v>
+      </c>
+      <c r="F312">
+        <v>33.29000091552734</v>
+      </c>
+      <c r="G312">
+        <v>686263</v>
+      </c>
+      <c r="H312">
+        <v>0.01462967150702621</v>
+      </c>
+      <c r="I312">
+        <v>0.06509205472255557</v>
+      </c>
+      <c r="J312">
+        <v>0.1742504574104531</v>
+      </c>
+      <c r="K312">
+        <v>0.1742504574104531</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWI.xlsx
+++ b/etf_dfs/EWI.xlsx
@@ -595,7 +595,7 @@
         <v>30.75</v>
       </c>
       <c r="F5" t="n">
-        <v>10.52517032623291</v>
+        <v>10.52517127990723</v>
       </c>
       <c r="G5" t="n">
         <v>2400</v>
@@ -657,7 +657,7 @@
         <v>27.625</v>
       </c>
       <c r="F7" t="n">
-        <v>9.718481063842773</v>
+        <v>9.718479156494141</v>
       </c>
       <c r="G7" t="n">
         <v>150</v>
@@ -688,7 +688,7 @@
         <v>29.5</v>
       </c>
       <c r="F8" t="n">
-        <v>10.37810611724854</v>
+        <v>10.37810516357422</v>
       </c>
       <c r="G8" t="n">
         <v>9050</v>
@@ -719,7 +719,7 @@
         <v>27.625</v>
       </c>
       <c r="F9" t="n">
-        <v>9.718481063842773</v>
+        <v>9.718479156494141</v>
       </c>
       <c r="G9" t="n">
         <v>100</v>
@@ -750,7 +750,7 @@
         <v>30</v>
       </c>
       <c r="F10" t="n">
-        <v>10.55400562286377</v>
+        <v>10.5540018081665</v>
       </c>
       <c r="G10" t="n">
         <v>6900</v>
@@ -781,7 +781,7 @@
         <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>10.55400562286377</v>
+        <v>10.5540018081665</v>
       </c>
       <c r="G11" t="n">
         <v>45750</v>
@@ -843,7 +843,7 @@
         <v>29.875</v>
       </c>
       <c r="F13" t="n">
-        <v>10.51003074645996</v>
+        <v>10.51003360748291</v>
       </c>
       <c r="G13" t="n">
         <v>21950</v>
@@ -874,7 +874,7 @@
         <v>30.25</v>
       </c>
       <c r="F14" t="n">
-        <v>10.6419563293457</v>
+        <v>10.64195442199707</v>
       </c>
       <c r="G14" t="n">
         <v>2100</v>
@@ -909,7 +909,7 @@
         <v>30.25</v>
       </c>
       <c r="F15" t="n">
-        <v>10.6419563293457</v>
+        <v>10.64195442199707</v>
       </c>
       <c r="G15" t="n">
         <v>8050</v>
@@ -944,7 +944,7 @@
         <v>30.5</v>
       </c>
       <c r="F16" t="n">
-        <v>10.72990703582764</v>
+        <v>10.72990131378174</v>
       </c>
       <c r="G16" t="n">
         <v>11250</v>
@@ -979,7 +979,7 @@
         <v>33.5</v>
       </c>
       <c r="F17" t="n">
-        <v>11.78530693054199</v>
+        <v>11.78530883789062</v>
       </c>
       <c r="G17" t="n">
         <v>84600</v>
@@ -1014,7 +1014,7 @@
         <v>35.375</v>
       </c>
       <c r="F18" t="n">
-        <v>12.4449348449707</v>
+        <v>12.44493198394775</v>
       </c>
       <c r="G18" t="n">
         <v>2550</v>
@@ -1049,7 +1049,7 @@
         <v>33.125</v>
       </c>
       <c r="F19" t="n">
-        <v>11.89935779571533</v>
+        <v>11.89935684204102</v>
       </c>
       <c r="G19" t="n">
         <v>2150</v>
@@ -1084,7 +1084,7 @@
         <v>38.5</v>
       </c>
       <c r="F20" t="n">
-        <v>13.83019828796387</v>
+        <v>13.83020114898682</v>
       </c>
       <c r="G20" t="n">
         <v>5950</v>
@@ -1119,7 +1119,7 @@
         <v>36</v>
       </c>
       <c r="F21" t="n">
-        <v>12.93213653564453</v>
+        <v>12.93213558197021</v>
       </c>
       <c r="G21" t="n">
         <v>9900</v>
@@ -1154,7 +1154,7 @@
         <v>36.75</v>
       </c>
       <c r="F22" t="n">
-        <v>13.20155143737793</v>
+        <v>13.20155429840088</v>
       </c>
       <c r="G22" t="n">
         <v>5000</v>
@@ -1189,7 +1189,7 @@
         <v>40.125</v>
       </c>
       <c r="F23" t="n">
-        <v>14.43473815917969</v>
+        <v>14.43473339080811</v>
       </c>
       <c r="G23" t="n">
         <v>3450</v>
@@ -1224,7 +1224,7 @@
         <v>43.25</v>
       </c>
       <c r="F24" t="n">
-        <v>15.55894184112549</v>
+        <v>15.55893993377686</v>
       </c>
       <c r="G24" t="n">
         <v>3200</v>
@@ -1259,7 +1259,7 @@
         <v>45</v>
       </c>
       <c r="F25" t="n">
-        <v>16.18848991394043</v>
+        <v>16.18848419189453</v>
       </c>
       <c r="G25" t="n">
         <v>2600</v>
@@ -1364,7 +1364,7 @@
         <v>55.75</v>
       </c>
       <c r="F28" t="n">
-        <v>20.05573654174805</v>
+        <v>20.05573844909668</v>
       </c>
       <c r="G28" t="n">
         <v>7400</v>
@@ -1434,7 +1434,7 @@
         <v>57.25</v>
       </c>
       <c r="F30" t="n">
-        <v>20.59535789489746</v>
+        <v>20.59535217285156</v>
       </c>
       <c r="G30" t="n">
         <v>26250</v>
@@ -1504,7 +1504,7 @@
         <v>43.375</v>
       </c>
       <c r="F32" t="n">
-        <v>16.77856254577637</v>
+        <v>16.77855682373047</v>
       </c>
       <c r="G32" t="n">
         <v>13550</v>
@@ -1539,7 +1539,7 @@
         <v>46.625</v>
       </c>
       <c r="F33" t="n">
-        <v>18.03574752807617</v>
+        <v>18.03574180603027</v>
       </c>
       <c r="G33" t="n">
         <v>25350</v>
@@ -1644,7 +1644,7 @@
         <v>52</v>
       </c>
       <c r="F36" t="n">
-        <v>20.47830009460449</v>
+        <v>20.47830200195312</v>
       </c>
       <c r="G36" t="n">
         <v>7850</v>
@@ -1679,7 +1679,7 @@
         <v>50.375</v>
       </c>
       <c r="F37" t="n">
-        <v>19.83835601806641</v>
+        <v>19.83835029602051</v>
       </c>
       <c r="G37" t="n">
         <v>1100</v>
@@ -1714,7 +1714,7 @@
         <v>52</v>
       </c>
       <c r="F38" t="n">
-        <v>20.47830009460449</v>
+        <v>20.47830200195312</v>
       </c>
       <c r="G38" t="n">
         <v>9850</v>
@@ -1749,7 +1749,7 @@
         <v>51.125</v>
       </c>
       <c r="F39" t="n">
-        <v>20.13371086120605</v>
+        <v>20.13371658325195</v>
       </c>
       <c r="G39" t="n">
         <v>10200</v>
@@ -1784,7 +1784,7 @@
         <v>48.75</v>
       </c>
       <c r="F40" t="n">
-        <v>19.19840240478516</v>
+        <v>19.19840431213379</v>
       </c>
       <c r="G40" t="n">
         <v>1800</v>
@@ -1819,7 +1819,7 @@
         <v>49.125</v>
       </c>
       <c r="F41" t="n">
-        <v>19.34608268737793</v>
+        <v>19.34608840942383</v>
       </c>
       <c r="G41" t="n">
         <v>21700</v>
@@ -1854,7 +1854,7 @@
         <v>46.25</v>
       </c>
       <c r="F42" t="n">
-        <v>18.2138729095459</v>
+        <v>18.2138786315918</v>
       </c>
       <c r="G42" t="n">
         <v>4150</v>
@@ -1889,7 +1889,7 @@
         <v>43.25</v>
       </c>
       <c r="F43" t="n">
-        <v>18.67547988891602</v>
+        <v>18.67548179626465</v>
       </c>
       <c r="G43" t="n">
         <v>6400</v>
@@ -1924,7 +1924,7 @@
         <v>44.125</v>
       </c>
       <c r="F44" t="n">
-        <v>19.05330657958984</v>
+        <v>19.05331420898438</v>
       </c>
       <c r="G44" t="n">
         <v>1250</v>
@@ -1959,7 +1959,7 @@
         <v>43.25</v>
       </c>
       <c r="F45" t="n">
-        <v>18.67547988891602</v>
+        <v>18.67548179626465</v>
       </c>
       <c r="G45" t="n">
         <v>2800</v>
@@ -1994,7 +1994,7 @@
         <v>43.25</v>
       </c>
       <c r="F46" t="n">
-        <v>18.67547988891602</v>
+        <v>18.67548179626465</v>
       </c>
       <c r="G46" t="n">
         <v>10900</v>
@@ -2029,7 +2029,7 @@
         <v>50</v>
       </c>
       <c r="F47" t="n">
-        <v>21.59015655517578</v>
+        <v>21.59015274047852</v>
       </c>
       <c r="G47" t="n">
         <v>3250</v>
@@ -2064,7 +2064,7 @@
         <v>46.75</v>
       </c>
       <c r="F48" t="n">
-        <v>20.18679237365723</v>
+        <v>20.18679618835449</v>
       </c>
       <c r="G48" t="n">
         <v>12150</v>
@@ -2099,7 +2099,7 @@
         <v>53.75</v>
       </c>
       <c r="F49" t="n">
-        <v>23.20941162109375</v>
+        <v>23.20941352844238</v>
       </c>
       <c r="G49" t="n">
         <v>19150</v>
@@ -2134,7 +2134,7 @@
         <v>50</v>
       </c>
       <c r="F50" t="n">
-        <v>21.59015655517578</v>
+        <v>21.59015274047852</v>
       </c>
       <c r="G50" t="n">
         <v>9650</v>
@@ -2169,7 +2169,7 @@
         <v>46.75</v>
       </c>
       <c r="F51" t="n">
-        <v>20.18679237365723</v>
+        <v>20.18679618835449</v>
       </c>
       <c r="G51" t="n">
         <v>450</v>
@@ -2204,7 +2204,7 @@
         <v>49.25</v>
       </c>
       <c r="F52" t="n">
-        <v>21.26629638671875</v>
+        <v>21.26630210876465</v>
       </c>
       <c r="G52" t="n">
         <v>2350</v>
@@ -2274,7 +2274,7 @@
         <v>50</v>
       </c>
       <c r="F54" t="n">
-        <v>21.59015655517578</v>
+        <v>21.59015274047852</v>
       </c>
       <c r="G54" t="n">
         <v>450</v>
@@ -2309,7 +2309,7 @@
         <v>44.75</v>
       </c>
       <c r="F55" t="n">
-        <v>21.24983215332031</v>
+        <v>21.24983787536621</v>
       </c>
       <c r="G55" t="n">
         <v>15800</v>
@@ -2344,7 +2344,7 @@
         <v>42.5</v>
       </c>
       <c r="F56" t="n">
-        <v>20.18140602111816</v>
+        <v>20.18141174316406</v>
       </c>
       <c r="G56" t="n">
         <v>5200</v>
@@ -2379,7 +2379,7 @@
         <v>43.5</v>
       </c>
       <c r="F57" t="n">
-        <v>20.65626525878906</v>
+        <v>20.6562671661377</v>
       </c>
       <c r="G57" t="n">
         <v>16750</v>
@@ -2414,7 +2414,7 @@
         <v>45.25</v>
       </c>
       <c r="F58" t="n">
-        <v>21.48726463317871</v>
+        <v>21.48726272583008</v>
       </c>
       <c r="G58" t="n">
         <v>113050</v>
@@ -2449,7 +2449,7 @@
         <v>45.25</v>
       </c>
       <c r="F59" t="n">
-        <v>23.99008941650391</v>
+        <v>23.99009323120117</v>
       </c>
       <c r="G59" t="n">
         <v>21700</v>
@@ -2484,7 +2484,7 @@
         <v>45.68000030517578</v>
       </c>
       <c r="F60" t="n">
-        <v>24.21806526184082</v>
+        <v>24.21806335449219</v>
       </c>
       <c r="G60" t="n">
         <v>45400</v>
@@ -2519,7 +2519,7 @@
         <v>41.31999969482422</v>
       </c>
       <c r="F61" t="n">
-        <v>21.90653419494629</v>
+        <v>21.90652275085449</v>
       </c>
       <c r="G61" t="n">
         <v>31050</v>
@@ -2554,7 +2554,7 @@
         <v>38.70000076293945</v>
       </c>
       <c r="F62" t="n">
-        <v>20.51748466491699</v>
+        <v>20.51749229431152</v>
       </c>
       <c r="G62" t="n">
         <v>13400</v>
@@ -2589,7 +2589,7 @@
         <v>40.52000045776367</v>
       </c>
       <c r="F63" t="n">
-        <v>21.48240089416504</v>
+        <v>21.48240280151367</v>
       </c>
       <c r="G63" t="n">
         <v>28200</v>
@@ -2624,7 +2624,7 @@
         <v>37.38000106811523</v>
       </c>
       <c r="F64" t="n">
-        <v>19.81767082214355</v>
+        <v>19.81767272949219</v>
       </c>
       <c r="G64" t="n">
         <v>3350</v>
@@ -2659,7 +2659,7 @@
         <v>35.79999923706055</v>
       </c>
       <c r="F65" t="n">
-        <v>18.97999954223633</v>
+        <v>18.98000526428223</v>
       </c>
       <c r="G65" t="n">
         <v>1900</v>
@@ -2694,7 +2694,7 @@
         <v>36.70000076293945</v>
       </c>
       <c r="F66" t="n">
-        <v>19.45715713500977</v>
+        <v>19.45715522766113</v>
       </c>
       <c r="G66" t="n">
         <v>10050</v>
@@ -2729,7 +2729,7 @@
         <v>35.52000045776367</v>
       </c>
       <c r="F67" t="n">
-        <v>19.15923118591309</v>
+        <v>19.15922927856445</v>
       </c>
       <c r="G67" t="n">
         <v>2100</v>
@@ -2764,7 +2764,7 @@
         <v>30.20000076293945</v>
       </c>
       <c r="F68" t="n">
-        <v>16.28965759277344</v>
+        <v>16.2896614074707</v>
       </c>
       <c r="G68" t="n">
         <v>1150</v>
@@ -2834,7 +2834,7 @@
         <v>31.79999923706055</v>
       </c>
       <c r="F70" t="n">
-        <v>17.15268898010254</v>
+        <v>17.15268516540527</v>
       </c>
       <c r="G70" t="n">
         <v>750</v>
@@ -2869,7 +2869,7 @@
         <v>32.20000076293945</v>
       </c>
       <c r="F71" t="n">
-        <v>17.36844444274902</v>
+        <v>17.36844253540039</v>
       </c>
       <c r="G71" t="n">
         <v>2200</v>
@@ -2904,7 +2904,7 @@
         <v>31.29999923706055</v>
       </c>
       <c r="F72" t="n">
-        <v>16.88298797607422</v>
+        <v>16.88299179077148</v>
       </c>
       <c r="G72" t="n">
         <v>3850</v>
@@ -2939,7 +2939,7 @@
         <v>31.36000061035156</v>
       </c>
       <c r="F73" t="n">
-        <v>16.91535186767578</v>
+        <v>16.91535568237305</v>
       </c>
       <c r="G73" t="n">
         <v>600</v>
@@ -2974,7 +2974,7 @@
         <v>33.2599983215332</v>
       </c>
       <c r="F74" t="n">
-        <v>17.94020080566406</v>
+        <v>17.9401969909668</v>
       </c>
       <c r="G74" t="n">
         <v>950</v>
@@ -3009,7 +3009,7 @@
         <v>33.40000152587891</v>
       </c>
       <c r="F75" t="n">
-        <v>18.01571655273438</v>
+        <v>18.01571846008301</v>
       </c>
       <c r="G75" t="n">
         <v>5000</v>
@@ -3079,7 +3079,7 @@
         <v>32.93999862670898</v>
       </c>
       <c r="F77" t="n">
-        <v>17.76759719848633</v>
+        <v>17.7675895690918</v>
       </c>
       <c r="G77" t="n">
         <v>1600</v>
@@ -3114,7 +3114,7 @@
         <v>30</v>
       </c>
       <c r="F78" t="n">
-        <v>16.1817798614502</v>
+        <v>16.18178176879883</v>
       </c>
       <c r="G78" t="n">
         <v>7150</v>
@@ -3149,7 +3149,7 @@
         <v>30.05999946594238</v>
       </c>
       <c r="F79" t="n">
-        <v>16.21414184570312</v>
+        <v>16.21414375305176</v>
       </c>
       <c r="G79" t="n">
         <v>13900</v>
@@ -3184,7 +3184,7 @@
         <v>26.28000068664551</v>
       </c>
       <c r="F80" t="n">
-        <v>14.17523956298828</v>
+        <v>14.17524242401123</v>
       </c>
       <c r="G80" t="n">
         <v>300</v>
@@ -3219,7 +3219,7 @@
         <v>27.89999961853027</v>
       </c>
       <c r="F81" t="n">
-        <v>15.04905605316162</v>
+        <v>15.04905319213867</v>
       </c>
       <c r="G81" t="n">
         <v>3000</v>
@@ -3289,7 +3289,7 @@
         <v>29.20000076293945</v>
       </c>
       <c r="F83" t="n">
-        <v>16.1566162109375</v>
+        <v>16.1566104888916</v>
       </c>
       <c r="G83" t="n">
         <v>350</v>
@@ -3324,7 +3324,7 @@
         <v>29.26000022888184</v>
       </c>
       <c r="F84" t="n">
-        <v>16.18981170654297</v>
+        <v>16.1898136138916</v>
       </c>
       <c r="G84" t="n">
         <v>1500</v>
@@ -3394,7 +3394,7 @@
         <v>27.86000061035156</v>
       </c>
       <c r="F86" t="n">
-        <v>15.41517925262451</v>
+        <v>15.41518115997314</v>
       </c>
       <c r="G86" t="n">
         <v>950</v>
@@ -3429,7 +3429,7 @@
         <v>31.57999992370605</v>
       </c>
       <c r="F87" t="n">
-        <v>17.4734935760498</v>
+        <v>17.47348594665527</v>
       </c>
       <c r="G87" t="n">
         <v>500</v>
@@ -3499,7 +3499,7 @@
         <v>34.7599983215332</v>
       </c>
       <c r="F89" t="n">
-        <v>19.23301315307617</v>
+        <v>19.23300361633301</v>
       </c>
       <c r="G89" t="n">
         <v>6250</v>
@@ -3534,7 +3534,7 @@
         <v>34.47999954223633</v>
       </c>
       <c r="F90" t="n">
-        <v>19.07808494567871</v>
+        <v>19.07808303833008</v>
       </c>
       <c r="G90" t="n">
         <v>7050</v>
@@ -3569,7 +3569,7 @@
         <v>33.27999877929688</v>
       </c>
       <c r="F91" t="n">
-        <v>18.41411209106445</v>
+        <v>18.41411018371582</v>
       </c>
       <c r="G91" t="n">
         <v>2350</v>
@@ -3639,7 +3639,7 @@
         <v>36.36000061035156</v>
       </c>
       <c r="F93" t="n">
-        <v>20.11830139160156</v>
+        <v>20.1183032989502</v>
       </c>
       <c r="G93" t="n">
         <v>19950</v>
@@ -3674,7 +3674,7 @@
         <v>38.90000152587891</v>
       </c>
       <c r="F94" t="n">
-        <v>21.52370834350586</v>
+        <v>21.52371406555176</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>39.43999862670898</v>
       </c>
       <c r="F95" t="n">
-        <v>22.91288185119629</v>
+        <v>22.91287803649902</v>
       </c>
       <c r="G95" t="n">
         <v>2300</v>
@@ -3744,7 +3744,7 @@
         <v>40.61999893188477</v>
       </c>
       <c r="F96" t="n">
-        <v>23.5984058380127</v>
+        <v>23.59840965270996</v>
       </c>
       <c r="G96" t="n">
         <v>31950</v>
@@ -3779,7 +3779,7 @@
         <v>41.04000091552734</v>
       </c>
       <c r="F97" t="n">
-        <v>23.8424072265625</v>
+        <v>23.84240531921387</v>
       </c>
       <c r="G97" t="n">
         <v>57050</v>
@@ -3814,7 +3814,7 @@
         <v>39.52000045776367</v>
       </c>
       <c r="F98" t="n">
-        <v>22.9593563079834</v>
+        <v>22.95934867858887</v>
       </c>
       <c r="G98" t="n">
         <v>6050</v>
@@ -3849,7 +3849,7 @@
         <v>39.93999862670898</v>
       </c>
       <c r="F99" t="n">
-        <v>23.20335960388184</v>
+        <v>23.20335578918457</v>
       </c>
       <c r="G99" t="n">
         <v>34800</v>
@@ -3884,7 +3884,7 @@
         <v>40.38000106811523</v>
       </c>
       <c r="F100" t="n">
-        <v>23.45897483825684</v>
+        <v>23.4589729309082</v>
       </c>
       <c r="G100" t="n">
         <v>8900</v>
@@ -3919,7 +3919,7 @@
         <v>42.06000137329102</v>
       </c>
       <c r="F101" t="n">
-        <v>24.43498420715332</v>
+        <v>24.43497848510742</v>
       </c>
       <c r="G101" t="n">
         <v>2900</v>
@@ -3954,7 +3954,7 @@
         <v>40.59999847412109</v>
       </c>
       <c r="F102" t="n">
-        <v>23.58678436279297</v>
+        <v>23.5867862701416</v>
       </c>
       <c r="G102" t="n">
         <v>6800</v>
@@ -3989,7 +3989,7 @@
         <v>40.70000076293945</v>
       </c>
       <c r="F103" t="n">
-        <v>23.64487457275391</v>
+        <v>23.64488792419434</v>
       </c>
       <c r="G103" t="n">
         <v>8050</v>
@@ -4024,7 +4024,7 @@
         <v>42.84000015258789</v>
       </c>
       <c r="F104" t="n">
-        <v>24.88812637329102</v>
+        <v>24.88811874389648</v>
       </c>
       <c r="G104" t="n">
         <v>1350</v>
@@ -4059,7 +4059,7 @@
         <v>45.5</v>
       </c>
       <c r="F105" t="n">
-        <v>26.4334716796875</v>
+        <v>26.4334659576416</v>
       </c>
       <c r="G105" t="n">
         <v>4350</v>
@@ -4094,7 +4094,7 @@
         <v>48.91999816894531</v>
       </c>
       <c r="F106" t="n">
-        <v>28.42033767700195</v>
+        <v>28.42033195495605</v>
       </c>
       <c r="G106" t="n">
         <v>19150</v>
@@ -4129,7 +4129,7 @@
         <v>51.20000076293945</v>
       </c>
       <c r="F107" t="n">
-        <v>30.50577926635742</v>
+        <v>30.50578689575195</v>
       </c>
       <c r="G107" t="n">
         <v>53650</v>
@@ -4164,7 +4164,7 @@
         <v>50.2599983215332</v>
       </c>
       <c r="F108" t="n">
-        <v>29.94571304321289</v>
+        <v>29.94570922851562</v>
       </c>
       <c r="G108" t="n">
         <v>13050</v>
@@ -4199,7 +4199,7 @@
         <v>51.68000030517578</v>
       </c>
       <c r="F109" t="n">
-        <v>30.79178047180176</v>
+        <v>30.79177665710449</v>
       </c>
       <c r="G109" t="n">
         <v>39550</v>
@@ -4234,7 +4234,7 @@
         <v>51.58000183105469</v>
       </c>
       <c r="F110" t="n">
-        <v>30.73218536376953</v>
+        <v>30.73220062255859</v>
       </c>
       <c r="G110" t="n">
         <v>11400</v>
@@ -4269,7 +4269,7 @@
         <v>49.02000045776367</v>
       </c>
       <c r="F111" t="n">
-        <v>29.20690155029297</v>
+        <v>29.20690727233887</v>
       </c>
       <c r="G111" t="n">
         <v>1400</v>
@@ -4374,7 +4374,7 @@
         <v>51.11999893188477</v>
       </c>
       <c r="F114" t="n">
-        <v>30.45812034606934</v>
+        <v>30.4581184387207</v>
       </c>
       <c r="G114" t="n">
         <v>1150</v>
@@ -4409,7 +4409,7 @@
         <v>51.88000106811523</v>
       </c>
       <c r="F115" t="n">
-        <v>30.91093826293945</v>
+        <v>30.91093063354492</v>
       </c>
       <c r="G115" t="n">
         <v>10900</v>
@@ -4444,7 +4444,7 @@
         <v>52.61999893188477</v>
       </c>
       <c r="F116" t="n">
-        <v>31.35184478759766</v>
+        <v>31.35184097290039</v>
       </c>
       <c r="G116" t="n">
         <v>14900</v>
@@ -4514,7 +4514,7 @@
         <v>49.95999908447266</v>
       </c>
       <c r="F118" t="n">
-        <v>29.7669734954834</v>
+        <v>29.76697731018066</v>
       </c>
       <c r="G118" t="n">
         <v>5700</v>
@@ -4549,7 +4549,7 @@
         <v>51.15999984741211</v>
       </c>
       <c r="F119" t="n">
-        <v>31.07852554321289</v>
+        <v>31.07852363586426</v>
       </c>
       <c r="G119" t="n">
         <v>5150</v>
@@ -4584,7 +4584,7 @@
         <v>53.90000152587891</v>
       </c>
       <c r="F120" t="n">
-        <v>32.74301528930664</v>
+        <v>32.74301910400391</v>
       </c>
       <c r="G120" t="n">
         <v>5250</v>
@@ -4619,7 +4619,7 @@
         <v>54.47999954223633</v>
       </c>
       <c r="F121" t="n">
-        <v>33.0953483581543</v>
+        <v>33.09534454345703</v>
       </c>
       <c r="G121" t="n">
         <v>16050</v>
@@ -4654,7 +4654,7 @@
         <v>55.79999923706055</v>
       </c>
       <c r="F122" t="n">
-        <v>33.89721298217773</v>
+        <v>33.89722061157227</v>
       </c>
       <c r="G122" t="n">
         <v>4150</v>
@@ -4689,7 +4689,7 @@
         <v>58.77999877929688</v>
       </c>
       <c r="F123" t="n">
-        <v>35.70750045776367</v>
+        <v>35.7075080871582</v>
       </c>
       <c r="G123" t="n">
         <v>31600</v>
@@ -4759,7 +4759,7 @@
         <v>58.5</v>
       </c>
       <c r="F125" t="n">
-        <v>35.53739929199219</v>
+        <v>35.53740310668945</v>
       </c>
       <c r="G125" t="n">
         <v>15600</v>
@@ -4794,7 +4794,7 @@
         <v>58.84000015258789</v>
       </c>
       <c r="F126" t="n">
-        <v>35.74394989013672</v>
+        <v>35.74395370483398</v>
       </c>
       <c r="G126" t="n">
         <v>3600</v>
@@ -4864,7 +4864,7 @@
         <v>60.95999908447266</v>
       </c>
       <c r="F128" t="n">
-        <v>37.03180694580078</v>
+        <v>37.03179550170898</v>
       </c>
       <c r="G128" t="n">
         <v>9400</v>
@@ -5004,7 +5004,7 @@
         <v>67.19999694824219</v>
       </c>
       <c r="F132" t="n">
-        <v>41.64477157592773</v>
+        <v>41.64476776123047</v>
       </c>
       <c r="G132" t="n">
         <v>42400</v>
@@ -5039,7 +5039,7 @@
         <v>66.05999755859375</v>
       </c>
       <c r="F133" t="n">
-        <v>40.93828582763672</v>
+        <v>40.93830490112305</v>
       </c>
       <c r="G133" t="n">
         <v>37600</v>
@@ -5109,7 +5109,7 @@
         <v>72.01999664306641</v>
       </c>
       <c r="F135" t="n">
-        <v>44.63178253173828</v>
+        <v>44.63177490234375</v>
       </c>
       <c r="G135" t="n">
         <v>10150</v>
@@ -5144,7 +5144,7 @@
         <v>71.59999847412109</v>
       </c>
       <c r="F136" t="n">
-        <v>44.37151718139648</v>
+        <v>44.37150192260742</v>
       </c>
       <c r="G136" t="n">
         <v>20600</v>
@@ -5179,7 +5179,7 @@
         <v>69.81999969482422</v>
       </c>
       <c r="F137" t="n">
-        <v>43.26841354370117</v>
+        <v>43.26840972900391</v>
       </c>
       <c r="G137" t="n">
         <v>48550</v>
@@ -5214,7 +5214,7 @@
         <v>67.23999786376953</v>
       </c>
       <c r="F138" t="n">
-        <v>41.66955184936523</v>
+        <v>41.66955947875977</v>
       </c>
       <c r="G138" t="n">
         <v>46150</v>
@@ -5249,7 +5249,7 @@
         <v>67.63999938964844</v>
       </c>
       <c r="F139" t="n">
-        <v>41.91744613647461</v>
+        <v>41.91743850708008</v>
       </c>
       <c r="G139" t="n">
         <v>23350</v>
@@ -5284,7 +5284,7 @@
         <v>69.68000030517578</v>
       </c>
       <c r="F140" t="n">
-        <v>43.18164443969727</v>
+        <v>43.18164825439453</v>
       </c>
       <c r="G140" t="n">
         <v>54650</v>
@@ -5319,7 +5319,7 @@
         <v>72.36000061035156</v>
       </c>
       <c r="F141" t="n">
-        <v>44.84249114990234</v>
+        <v>44.84248733520508</v>
       </c>
       <c r="G141" t="n">
         <v>80600</v>
@@ -5354,7 +5354,7 @@
         <v>70.76000213623047</v>
       </c>
       <c r="F142" t="n">
-        <v>43.85094833374023</v>
+        <v>43.85094451904297</v>
       </c>
       <c r="G142" t="n">
         <v>22900</v>
@@ -5424,7 +5424,7 @@
         <v>60.79999923706055</v>
       </c>
       <c r="F144" t="n">
-        <v>39.41387939453125</v>
+        <v>39.41388320922852</v>
       </c>
       <c r="G144" t="n">
         <v>363350</v>
@@ -5459,7 +5459,7 @@
         <v>59.63999938964844</v>
       </c>
       <c r="F145" t="n">
-        <v>38.66189956665039</v>
+        <v>38.66190338134766</v>
       </c>
       <c r="G145" t="n">
         <v>66550</v>
@@ -5494,7 +5494,7 @@
         <v>59.09999847412109</v>
       </c>
       <c r="F146" t="n">
-        <v>38.31184387207031</v>
+        <v>38.31184768676758</v>
       </c>
       <c r="G146" t="n">
         <v>1163950</v>
@@ -5529,7 +5529,7 @@
         <v>62.56000137329102</v>
       </c>
       <c r="F147" t="n">
-        <v>40.55480575561523</v>
+        <v>40.5548095703125</v>
       </c>
       <c r="G147" t="n">
         <v>29350</v>
@@ -5564,7 +5564,7 @@
         <v>63.11999893188477</v>
       </c>
       <c r="F148" t="n">
-        <v>40.91783142089844</v>
+        <v>40.9178352355957</v>
       </c>
       <c r="G148" t="n">
         <v>51250</v>
@@ -5599,7 +5599,7 @@
         <v>53.81999969482422</v>
       </c>
       <c r="F149" t="n">
-        <v>36.31196594238281</v>
+        <v>36.31198120117188</v>
       </c>
       <c r="G149" t="n">
         <v>46700</v>
@@ -5669,7 +5669,7 @@
         <v>49.65999984741211</v>
       </c>
       <c r="F151" t="n">
-        <v>33.50525283813477</v>
+        <v>33.5052490234375</v>
       </c>
       <c r="G151" t="n">
         <v>16300</v>
@@ -5704,7 +5704,7 @@
         <v>43.08000183105469</v>
       </c>
       <c r="F152" t="n">
-        <v>29.06577301025391</v>
+        <v>29.0657787322998</v>
       </c>
       <c r="G152" t="n">
         <v>79950</v>
@@ -5739,7 +5739,7 @@
         <v>32.93999862670898</v>
       </c>
       <c r="F153" t="n">
-        <v>22.22438430786133</v>
+        <v>22.22438812255859</v>
       </c>
       <c r="G153" t="n">
         <v>28300</v>
@@ -5774,7 +5774,7 @@
         <v>31.04000091552734</v>
       </c>
       <c r="F154" t="n">
-        <v>20.94246864318848</v>
+        <v>20.94247245788574</v>
       </c>
       <c r="G154" t="n">
         <v>10000</v>
@@ -5809,7 +5809,7 @@
         <v>32.77999877929688</v>
       </c>
       <c r="F155" t="n">
-        <v>22.71614456176758</v>
+        <v>22.71614265441895</v>
       </c>
       <c r="G155" t="n">
         <v>227250</v>
@@ -5844,7 +5844,7 @@
         <v>27.31999969482422</v>
       </c>
       <c r="F156" t="n">
-        <v>18.93242835998535</v>
+        <v>18.93242645263672</v>
       </c>
       <c r="G156" t="n">
         <v>80250</v>
@@ -5879,7 +5879,7 @@
         <v>23.52000045776367</v>
       </c>
       <c r="F157" t="n">
-        <v>16.29907989501953</v>
+        <v>16.29907417297363</v>
       </c>
       <c r="G157" t="n">
         <v>29700</v>
@@ -5914,7 +5914,7 @@
         <v>25.28000068664551</v>
       </c>
       <c r="F158" t="n">
-        <v>17.51872634887695</v>
+        <v>17.51873397827148</v>
       </c>
       <c r="G158" t="n">
         <v>45950</v>
@@ -5949,7 +5949,7 @@
         <v>30.04000091552734</v>
       </c>
       <c r="F159" t="n">
-        <v>20.81735801696777</v>
+        <v>20.81735420227051</v>
       </c>
       <c r="G159" t="n">
         <v>37050</v>
@@ -6019,7 +6019,7 @@
         <v>32.47999954223633</v>
       </c>
       <c r="F161" t="n">
-        <v>22.8184814453125</v>
+        <v>22.81848335266113</v>
       </c>
       <c r="G161" t="n">
         <v>60900</v>
@@ -6054,7 +6054,7 @@
         <v>35.20000076293945</v>
       </c>
       <c r="F162" t="n">
-        <v>24.72939109802246</v>
+        <v>24.72939300537109</v>
       </c>
       <c r="G162" t="n">
         <v>37550</v>
@@ -6089,7 +6089,7 @@
         <v>38.20000076293945</v>
       </c>
       <c r="F163" t="n">
-        <v>26.83701705932617</v>
+        <v>26.83701133728027</v>
       </c>
       <c r="G163" t="n">
         <v>142200</v>
@@ -6124,7 +6124,7 @@
         <v>40.81999969482422</v>
       </c>
       <c r="F164" t="n">
-        <v>28.67766952514648</v>
+        <v>28.67765808105469</v>
       </c>
       <c r="G164" t="n">
         <v>30550</v>
@@ -6159,7 +6159,7 @@
         <v>38.38000106811523</v>
       </c>
       <c r="F165" t="n">
-        <v>26.96346664428711</v>
+        <v>26.96347045898438</v>
       </c>
       <c r="G165" t="n">
         <v>106050</v>
@@ -6194,7 +6194,7 @@
         <v>39.47999954223633</v>
       </c>
       <c r="F166" t="n">
-        <v>27.73626708984375</v>
+        <v>27.73625373840332</v>
       </c>
       <c r="G166" t="n">
         <v>19850</v>
@@ -6229,7 +6229,7 @@
         <v>39.02000045776367</v>
       </c>
       <c r="F167" t="n">
-        <v>27.72559356689453</v>
+        <v>27.72559547424316</v>
       </c>
       <c r="G167" t="n">
         <v>11350</v>
@@ -6299,7 +6299,7 @@
         <v>33.95999908447266</v>
       </c>
       <c r="F169" t="n">
-        <v>24.13022613525391</v>
+        <v>24.13021850585938</v>
       </c>
       <c r="G169" t="n">
         <v>32000</v>
@@ -6334,7 +6334,7 @@
         <v>36.47999954223633</v>
       </c>
       <c r="F170" t="n">
-        <v>25.92079734802246</v>
+        <v>25.92080688476562</v>
       </c>
       <c r="G170" t="n">
         <v>99900</v>
@@ -6369,7 +6369,7 @@
         <v>33.52000045776367</v>
       </c>
       <c r="F171" t="n">
-        <v>23.81757736206055</v>
+        <v>23.81758308410645</v>
       </c>
       <c r="G171" t="n">
         <v>48950</v>
@@ -6439,7 +6439,7 @@
         <v>27.60000038146973</v>
       </c>
       <c r="F173" t="n">
-        <v>19.9219970703125</v>
+        <v>19.92200088500977</v>
       </c>
       <c r="G173" t="n">
         <v>30350</v>
@@ -6474,7 +6474,7 @@
         <v>32.61999893188477</v>
       </c>
       <c r="F174" t="n">
-        <v>23.54549598693848</v>
+        <v>23.54549407958984</v>
       </c>
       <c r="G174" t="n">
         <v>40150</v>
@@ -6509,7 +6509,7 @@
         <v>29.71999931335449</v>
       </c>
       <c r="F175" t="n">
-        <v>21.45224189758301</v>
+        <v>21.45223999023438</v>
       </c>
       <c r="G175" t="n">
         <v>55700</v>
@@ -6544,7 +6544,7 @@
         <v>33.59999847412109</v>
       </c>
       <c r="F176" t="n">
-        <v>24.25287437438965</v>
+        <v>24.25286865234375</v>
       </c>
       <c r="G176" t="n">
         <v>879650</v>
@@ -6579,7 +6579,7 @@
         <v>35.81999969482422</v>
       </c>
       <c r="F177" t="n">
-        <v>25.85529136657715</v>
+        <v>25.85529708862305</v>
       </c>
       <c r="G177" t="n">
         <v>26750</v>
@@ -6614,7 +6614,7 @@
         <v>30.21999931335449</v>
       </c>
       <c r="F178" t="n">
-        <v>21.81314849853516</v>
+        <v>21.81314659118652</v>
       </c>
       <c r="G178" t="n">
         <v>90150</v>
@@ -6649,7 +6649,7 @@
         <v>32.7599983215332</v>
       </c>
       <c r="F179" t="n">
-        <v>23.78916358947754</v>
+        <v>23.78916549682617</v>
       </c>
       <c r="G179" t="n">
         <v>170200</v>
@@ -6684,7 +6684,7 @@
         <v>36.2599983215332</v>
       </c>
       <c r="F180" t="n">
-        <v>26.33073997497559</v>
+        <v>26.33074569702148</v>
       </c>
       <c r="G180" t="n">
         <v>512850</v>
@@ -6754,7 +6754,7 @@
         <v>37.15999984741211</v>
       </c>
       <c r="F182" t="n">
-        <v>26.98429107666016</v>
+        <v>26.98428916931152</v>
       </c>
       <c r="G182" t="n">
         <v>128850</v>
@@ -6824,7 +6824,7 @@
         <v>37.27999877929688</v>
       </c>
       <c r="F184" t="n">
-        <v>27.07143211364746</v>
+        <v>27.07143402099609</v>
       </c>
       <c r="G184" t="n">
         <v>261950</v>
@@ -6859,7 +6859,7 @@
         <v>35.22000122070312</v>
       </c>
       <c r="F185" t="n">
-        <v>26.15246772766113</v>
+        <v>26.1524715423584</v>
       </c>
       <c r="G185" t="n">
         <v>158350</v>
@@ -6929,7 +6929,7 @@
         <v>27.21999931335449</v>
       </c>
       <c r="F187" t="n">
-        <v>20.21210289001465</v>
+        <v>20.21209907531738</v>
       </c>
       <c r="G187" t="n">
         <v>188050</v>
@@ -6999,7 +6999,7 @@
         <v>27</v>
       </c>
       <c r="F189" t="n">
-        <v>20.04874420166016</v>
+        <v>20.04873847961426</v>
       </c>
       <c r="G189" t="n">
         <v>510400</v>
@@ -7034,7 +7034,7 @@
         <v>25.5</v>
       </c>
       <c r="F190" t="n">
-        <v>18.9349193572998</v>
+        <v>18.93492126464844</v>
       </c>
       <c r="G190" t="n">
         <v>228050</v>
@@ -7069,7 +7069,7 @@
         <v>23.97999954223633</v>
       </c>
       <c r="F191" t="n">
-        <v>18.05936431884766</v>
+        <v>18.05936050415039</v>
       </c>
       <c r="G191" t="n">
         <v>69700</v>
@@ -7139,7 +7139,7 @@
         <v>26.73999977111816</v>
       </c>
       <c r="F193" t="n">
-        <v>20.13792419433594</v>
+        <v>20.13792610168457</v>
       </c>
       <c r="G193" t="n">
         <v>438800</v>
@@ -7174,7 +7174,7 @@
         <v>26.15999984741211</v>
       </c>
       <c r="F194" t="n">
-        <v>19.70112037658691</v>
+        <v>19.70112228393555</v>
       </c>
       <c r="G194" t="n">
         <v>462550</v>
@@ -7209,7 +7209,7 @@
         <v>24</v>
       </c>
       <c r="F195" t="n">
-        <v>18.07442474365234</v>
+        <v>18.07442283630371</v>
       </c>
       <c r="G195" t="n">
         <v>97000</v>
@@ -7244,7 +7244,7 @@
         <v>20.23999977111816</v>
       </c>
       <c r="F196" t="n">
-        <v>15.24276542663574</v>
+        <v>15.24276256561279</v>
       </c>
       <c r="G196" t="n">
         <v>383850</v>
@@ -7279,7 +7279,7 @@
         <v>22.6200008392334</v>
       </c>
       <c r="F197" t="n">
-        <v>17.43718147277832</v>
+        <v>17.43717575073242</v>
       </c>
       <c r="G197" t="n">
         <v>642100</v>
@@ -7314,7 +7314,7 @@
         <v>21.07999992370605</v>
       </c>
       <c r="F198" t="n">
-        <v>16.25002861022949</v>
+        <v>16.25002670288086</v>
       </c>
       <c r="G198" t="n">
         <v>216250</v>
@@ -7384,7 +7384,7 @@
         <v>24.05999946594238</v>
       </c>
       <c r="F200" t="n">
-        <v>18.5472412109375</v>
+        <v>18.5472354888916</v>
       </c>
       <c r="G200" t="n">
         <v>306600</v>
@@ -7419,7 +7419,7 @@
         <v>24.94000053405762</v>
       </c>
       <c r="F201" t="n">
-        <v>19.2256031036377</v>
+        <v>19.22560501098633</v>
       </c>
       <c r="G201" t="n">
         <v>206700</v>
@@ -7454,7 +7454,7 @@
         <v>25.5</v>
       </c>
       <c r="F202" t="n">
-        <v>19.65729522705078</v>
+        <v>19.65729713439941</v>
       </c>
       <c r="G202" t="n">
         <v>279950</v>
@@ -7489,7 +7489,7 @@
         <v>26.89999961853027</v>
       </c>
       <c r="F203" t="n">
-        <v>20.83505249023438</v>
+        <v>20.83505439758301</v>
       </c>
       <c r="G203" t="n">
         <v>415250</v>
@@ -7524,7 +7524,7 @@
         <v>28.39999961853027</v>
       </c>
       <c r="F204" t="n">
-        <v>21.99685478210449</v>
+        <v>21.99685859680176</v>
       </c>
       <c r="G204" t="n">
         <v>548100</v>
@@ -7559,7 +7559,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="F205" t="n">
-        <v>19.27048683166504</v>
+        <v>19.27048492431641</v>
       </c>
       <c r="G205" t="n">
         <v>899800</v>
@@ -7629,7 +7629,7 @@
         <v>26.29999923706055</v>
       </c>
       <c r="F207" t="n">
-        <v>20.37033081054688</v>
+        <v>20.37033271789551</v>
       </c>
       <c r="G207" t="n">
         <v>1801100</v>
@@ -7699,7 +7699,7 @@
         <v>23.6200008392334</v>
       </c>
       <c r="F209" t="n">
-        <v>18.66917610168457</v>
+        <v>18.6691780090332</v>
       </c>
       <c r="G209" t="n">
         <v>501650</v>
@@ -7734,7 +7734,7 @@
         <v>26</v>
       </c>
       <c r="F210" t="n">
-        <v>20.55032157897949</v>
+        <v>20.55032730102539</v>
       </c>
       <c r="G210" t="n">
         <v>1131600</v>
@@ -7769,7 +7769,7 @@
         <v>26.07999992370605</v>
       </c>
       <c r="F211" t="n">
-        <v>20.61355400085449</v>
+        <v>20.61355209350586</v>
       </c>
       <c r="G211" t="n">
         <v>273450</v>
@@ -7804,7 +7804,7 @@
         <v>28.23999977111816</v>
       </c>
       <c r="F212" t="n">
-        <v>22.32081031799316</v>
+        <v>22.3208122253418</v>
       </c>
       <c r="G212" t="n">
         <v>1193900</v>
@@ -7839,7 +7839,7 @@
         <v>31.34000015258789</v>
       </c>
       <c r="F213" t="n">
-        <v>24.77104759216309</v>
+        <v>24.77104187011719</v>
       </c>
       <c r="G213" t="n">
         <v>585550</v>
@@ -7874,7 +7874,7 @@
         <v>30.65999984741211</v>
       </c>
       <c r="F214" t="n">
-        <v>24.23357391357422</v>
+        <v>24.23357200622559</v>
       </c>
       <c r="G214" t="n">
         <v>727650</v>
@@ -7909,7 +7909,7 @@
         <v>31.18000030517578</v>
       </c>
       <c r="F215" t="n">
-        <v>24.80657958984375</v>
+        <v>24.80657768249512</v>
       </c>
       <c r="G215" t="n">
         <v>474350</v>
@@ -7944,7 +7944,7 @@
         <v>31.07999992370605</v>
       </c>
       <c r="F216" t="n">
-        <v>24.72702026367188</v>
+        <v>24.72702217102051</v>
       </c>
       <c r="G216" t="n">
         <v>813650</v>
@@ -8049,7 +8049,7 @@
         <v>36.08000183105469</v>
       </c>
       <c r="F219" t="n">
-        <v>28.70498466491699</v>
+        <v>28.70498657226562</v>
       </c>
       <c r="G219" t="n">
         <v>3087350</v>
@@ -8189,7 +8189,7 @@
         <v>31.94000053405762</v>
       </c>
       <c r="F223" t="n">
-        <v>25.76835823059082</v>
+        <v>25.76836204528809</v>
       </c>
       <c r="G223" t="n">
         <v>860350</v>
@@ -8259,7 +8259,7 @@
         <v>29.79999923706055</v>
       </c>
       <c r="F225" t="n">
-        <v>24.04186058044434</v>
+        <v>24.04186248779297</v>
       </c>
       <c r="G225" t="n">
         <v>3280050</v>
@@ -8364,7 +8364,7 @@
         <v>27.42000007629395</v>
       </c>
       <c r="F228" t="n">
-        <v>22.27750396728516</v>
+        <v>22.27750778198242</v>
       </c>
       <c r="G228" t="n">
         <v>1083800</v>
@@ -8469,7 +8469,7 @@
         <v>30.54000091552734</v>
       </c>
       <c r="F231" t="n">
-        <v>24.81236457824707</v>
+        <v>24.81236267089844</v>
       </c>
       <c r="G231" t="n">
         <v>1180350</v>
@@ -8504,7 +8504,7 @@
         <v>31.1200008392334</v>
       </c>
       <c r="F232" t="n">
-        <v>25.2835865020752</v>
+        <v>25.28359031677246</v>
       </c>
       <c r="G232" t="n">
         <v>820050</v>
@@ -8609,7 +8609,7 @@
         <v>29.60000038146973</v>
       </c>
       <c r="F235" t="n">
-        <v>24.47649002075195</v>
+        <v>24.47649192810059</v>
       </c>
       <c r="G235" t="n">
         <v>1607500</v>
@@ -8644,7 +8644,7 @@
         <v>28.63999938964844</v>
       </c>
       <c r="F236" t="n">
-        <v>23.68265724182129</v>
+        <v>23.68265914916992</v>
       </c>
       <c r="G236" t="n">
         <v>1127100</v>
@@ -8679,7 +8679,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="F237" t="n">
-        <v>24.4930305480957</v>
+        <v>24.49302673339844</v>
       </c>
       <c r="G237" t="n">
         <v>534700</v>
@@ -8714,7 +8714,7 @@
         <v>28.78000068664551</v>
       </c>
       <c r="F238" t="n">
-        <v>23.79842376708984</v>
+        <v>23.79842758178711</v>
       </c>
       <c r="G238" t="n">
         <v>753500</v>
@@ -8819,7 +8819,7 @@
         <v>22.55999946594238</v>
       </c>
       <c r="F241" t="n">
-        <v>18.71238136291504</v>
+        <v>18.71237754821777</v>
       </c>
       <c r="G241" t="n">
         <v>794850</v>
@@ -8854,7 +8854,7 @@
         <v>24.39999961853027</v>
       </c>
       <c r="F242" t="n">
-        <v>20.23856544494629</v>
+        <v>20.23856163024902</v>
       </c>
       <c r="G242" t="n">
         <v>1076700</v>
@@ -8924,7 +8924,7 @@
         <v>24.29999923706055</v>
       </c>
       <c r="F244" t="n">
-        <v>20.1556224822998</v>
+        <v>20.15561866760254</v>
       </c>
       <c r="G244" t="n">
         <v>785450</v>
@@ -8994,7 +8994,7 @@
         <v>22.3799991607666</v>
       </c>
       <c r="F246" t="n">
-        <v>19.0879955291748</v>
+        <v>19.08799743652344</v>
       </c>
       <c r="G246" t="n">
         <v>787850</v>
@@ -9064,7 +9064,7 @@
         <v>22.04000091552734</v>
       </c>
       <c r="F248" t="n">
-        <v>18.79800987243652</v>
+        <v>18.79801177978516</v>
       </c>
       <c r="G248" t="n">
         <v>773450</v>
@@ -9134,7 +9134,7 @@
         <v>21.75</v>
       </c>
       <c r="F250" t="n">
-        <v>18.55066680908203</v>
+        <v>18.55066871643066</v>
       </c>
       <c r="G250" t="n">
         <v>1769200</v>
@@ -9169,7 +9169,7 @@
         <v>24.20999908447266</v>
       </c>
       <c r="F251" t="n">
-        <v>20.84031867980957</v>
+        <v>20.84031677246094</v>
       </c>
       <c r="G251" t="n">
         <v>885100</v>
@@ -9239,7 +9239,7 @@
         <v>23.64999961853027</v>
       </c>
       <c r="F253" t="n">
-        <v>20.35826110839844</v>
+        <v>20.35825729370117</v>
       </c>
       <c r="G253" t="n">
         <v>718900</v>
@@ -9309,7 +9309,7 @@
         <v>26.45000076293945</v>
       </c>
       <c r="F255" t="n">
-        <v>22.7685432434082</v>
+        <v>22.76854133605957</v>
       </c>
       <c r="G255" t="n">
         <v>758900</v>
@@ -9379,7 +9379,7 @@
         <v>27.79999923706055</v>
       </c>
       <c r="F257" t="n">
-        <v>24.36099815368652</v>
+        <v>24.36099624633789</v>
       </c>
       <c r="G257" t="n">
         <v>1797800</v>
@@ -9519,7 +9519,7 @@
         <v>30.95999908447266</v>
       </c>
       <c r="F261" t="n">
-        <v>27.13009071350098</v>
+        <v>27.13009262084961</v>
       </c>
       <c r="G261" t="n">
         <v>423800</v>
@@ -9554,7 +9554,7 @@
         <v>31.01000022888184</v>
       </c>
       <c r="F262" t="n">
-        <v>27.17390441894531</v>
+        <v>27.17390632629395</v>
       </c>
       <c r="G262" t="n">
         <v>655700</v>
@@ -9624,7 +9624,7 @@
         <v>33.77999877929688</v>
       </c>
       <c r="F264" t="n">
-        <v>29.76435089111328</v>
+        <v>29.76434707641602</v>
       </c>
       <c r="G264" t="n">
         <v>864300</v>
@@ -9659,7 +9659,7 @@
         <v>31.70999908447266</v>
       </c>
       <c r="F265" t="n">
-        <v>27.94042205810547</v>
+        <v>27.9404239654541</v>
       </c>
       <c r="G265" t="n">
         <v>1032400</v>
@@ -9729,7 +9729,7 @@
         <v>33.56999969482422</v>
       </c>
       <c r="F267" t="n">
-        <v>29.57931518554688</v>
+        <v>29.57931137084961</v>
       </c>
       <c r="G267" t="n">
         <v>599700</v>
@@ -9764,7 +9764,7 @@
         <v>30.29000091552734</v>
       </c>
       <c r="F268" t="n">
-        <v>26.68922996520996</v>
+        <v>26.68922805786133</v>
       </c>
       <c r="G268" t="n">
         <v>5260700</v>
@@ -9799,7 +9799,7 @@
         <v>28.88999938964844</v>
       </c>
       <c r="F269" t="n">
-        <v>26.16992950439453</v>
+        <v>26.16993141174316</v>
       </c>
       <c r="G269" t="n">
         <v>1068900</v>
@@ -9834,7 +9834,7 @@
         <v>29.8700008392334</v>
       </c>
       <c r="F270" t="n">
-        <v>27.05766296386719</v>
+        <v>27.05766487121582</v>
       </c>
       <c r="G270" t="n">
         <v>1113800</v>
@@ -9869,7 +9869,7 @@
         <v>27.10000038146973</v>
       </c>
       <c r="F271" t="n">
-        <v>24.54846572875977</v>
+        <v>24.5484619140625</v>
       </c>
       <c r="G271" t="n">
         <v>665500</v>
@@ -9904,7 +9904,7 @@
         <v>27.65999984741211</v>
       </c>
       <c r="F272" t="n">
-        <v>25.05573654174805</v>
+        <v>25.05574035644531</v>
       </c>
       <c r="G272" t="n">
         <v>4833500</v>
@@ -9939,7 +9939,7 @@
         <v>25.04999923706055</v>
       </c>
       <c r="F273" t="n">
-        <v>22.69147682189941</v>
+        <v>22.69147872924805</v>
       </c>
       <c r="G273" t="n">
         <v>539700</v>
@@ -10009,7 +10009,7 @@
         <v>24.20999908447266</v>
       </c>
       <c r="F275" t="n">
-        <v>22.2137451171875</v>
+        <v>22.21374320983887</v>
       </c>
       <c r="G275" t="n">
         <v>667400</v>
@@ -10044,7 +10044,7 @@
         <v>26.17000007629395</v>
       </c>
       <c r="F276" t="n">
-        <v>24.01212882995605</v>
+        <v>24.01213073730469</v>
       </c>
       <c r="G276" t="n">
         <v>632900</v>
@@ -10079,7 +10079,7 @@
         <v>27.14999961853027</v>
       </c>
       <c r="F277" t="n">
-        <v>24.91132354736328</v>
+        <v>24.91132545471191</v>
       </c>
       <c r="G277" t="n">
         <v>598600</v>
@@ -10114,7 +10114,7 @@
         <v>27.79000091552734</v>
       </c>
       <c r="F278" t="n">
-        <v>25.49855422973633</v>
+        <v>25.4985523223877</v>
       </c>
       <c r="G278" t="n">
         <v>470000</v>
@@ -10149,7 +10149,7 @@
         <v>28.29000091552734</v>
       </c>
       <c r="F279" t="n">
-        <v>25.95732498168945</v>
+        <v>25.95732688903809</v>
       </c>
       <c r="G279" t="n">
         <v>670100</v>
@@ -10219,7 +10219,7 @@
         <v>27.54999923706055</v>
       </c>
       <c r="F281" t="n">
-        <v>26.15961074829102</v>
+        <v>26.15960502624512</v>
       </c>
       <c r="G281" t="n">
         <v>601500</v>
@@ -10254,7 +10254,7 @@
         <v>27.03000068664551</v>
       </c>
       <c r="F282" t="n">
-        <v>25.66585159301758</v>
+        <v>25.66585350036621</v>
       </c>
       <c r="G282" t="n">
         <v>2007900</v>
@@ -10604,7 +10604,7 @@
         <v>22.45999908447266</v>
       </c>
       <c r="F292" t="n">
-        <v>21.47627258300781</v>
+        <v>21.47627067565918</v>
       </c>
       <c r="G292" t="n">
         <v>581900</v>
@@ -10674,7 +10674,7 @@
         <v>24.72999954223633</v>
       </c>
       <c r="F294" t="n">
-        <v>23.89819717407227</v>
+        <v>23.8981990814209</v>
       </c>
       <c r="G294" t="n">
         <v>559400</v>
@@ -10709,7 +10709,7 @@
         <v>25.73999977111816</v>
       </c>
       <c r="F295" t="n">
-        <v>24.87422752380371</v>
+        <v>24.87422561645508</v>
       </c>
       <c r="G295" t="n">
         <v>538500</v>
@@ -10779,7 +10779,7 @@
         <v>22.80999946594238</v>
       </c>
       <c r="F297" t="n">
-        <v>22.04277801513672</v>
+        <v>22.04277610778809</v>
       </c>
       <c r="G297" t="n">
         <v>483200</v>
@@ -10814,7 +10814,7 @@
         <v>28.55999946594238</v>
       </c>
       <c r="F298" t="n">
-        <v>27.59937286376953</v>
+        <v>27.59937477111816</v>
       </c>
       <c r="G298" t="n">
         <v>991700</v>
@@ -11301,25 +11301,25 @@
         <v>33.54000091552734</v>
       </c>
       <c r="E312" t="n">
-        <v>33.66500091552734</v>
+        <v>33.56000137329102</v>
       </c>
       <c r="F312" t="n">
-        <v>33.66500091552734</v>
+        <v>33.56000137329102</v>
       </c>
       <c r="G312" t="n">
-        <v>119000</v>
+        <v>163878</v>
       </c>
       <c r="H312" t="n">
-        <v>0.02605911327185551</v>
+        <v>0.02285888352965859</v>
       </c>
       <c r="I312" t="n">
-        <v>0.06511577339536165</v>
+        <v>0.06510744771002012</v>
       </c>
       <c r="J312" t="n">
-        <v>0.1874779704599805</v>
+        <v>0.1837742829529794</v>
       </c>
       <c r="K312" t="n">
-        <v>0.1874779704599805</v>
+        <v>0.1837742829529794</v>
       </c>
     </row>
   </sheetData>
